--- a/Experiment.xlsx
+++ b/Experiment.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Download/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason/GitHub/Research/Traffic_Simulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="500" yWindow="460" windowWidth="25100" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="500" yWindow="460" windowWidth="25100" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Experiment</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Taxi Arrival time</t>
   </si>
@@ -38,14 +36,17 @@
     <t>Estimated arrival time (in second, not include the time for waiting traffic lights)</t>
   </si>
   <si>
-    <t>Difference in arrival time of the called taxi and the first taxi (in minute)</t>
+    <t>Difference in arrival time between the called taxi and the first taxi (in minute)</t>
+  </si>
+  <si>
+    <t>Experiment (500 cars, 20 taxis, initially 80% on major roads)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -57,6 +58,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -76,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -93,30 +110,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,137 +445,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" s="8" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>79.319999999999993</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="12">
+        <f>(MAX(E2:P2) -E2)/60</f>
         <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>41.54</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="12">
+        <f>(MAX(E3:P3) -E3)/60</f>
         <v>0</v>
       </c>
       <c r="E3" s="1">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>45.83</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="12">
+        <f>(MAX(E4:P4) -E4)/60</f>
         <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>87.93</v>
       </c>
-      <c r="D5" s="10">
-        <f>(J5-E5)/ 60</f>
+      <c r="D5" s="12">
+        <f>(MAX(E5:P5) -E5)/60</f>
         <v>2.1333333333333333</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>590</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>671</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>681</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>709</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>712</v>
       </c>
       <c r="J5" s="1">
         <v>718</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>55.27</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="12">
+        <f>(MAX(E6:P6) -E6)/60</f>
         <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>72.25</v>
       </c>
-      <c r="D7" s="10">
-        <f>(G7-E7)/60</f>
+      <c r="D7" s="12">
+        <f>(MAX(E7:P7) -E7)/60</f>
         <v>1.3</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>724</v>
       </c>
       <c r="F7">
@@ -532,306 +592,514 @@
         <v>802</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>23.58</v>
       </c>
-      <c r="D8" s="11">
-        <f>(M8-E8)/60</f>
+      <c r="D8" s="13">
+        <f>(MAX(E8:P8) -E8)/60</f>
         <v>8.9666666666666668</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>157</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>432</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>435</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>496</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>511</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <v>578</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="3">
         <v>589</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="3">
         <v>633</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="5">
         <v>695</v>
       </c>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="N8" s="4"/>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>95.4</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="10">
-        <f>(G9-E9)/60</f>
+      <c r="C9" s="6"/>
+      <c r="D9" s="12">
+        <f>(MAX(E9:P9) -E9)/60</f>
         <v>4.8166666666666664</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>372</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>513</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="7">
         <v>661</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>32</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="10">
-        <f>(MAX(E10:M10) -E10)/60</f>
+      <c r="C10" s="6"/>
+      <c r="D10" s="12">
+        <f>(MAX(E10:P10) -E10)/60</f>
         <v>2.8</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>247</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>331</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
         <v>415</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>87.67</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10">
-        <f t="shared" ref="D11:D21" si="0">(MAX(E11:M11) -E11)/60</f>
+      <c r="C11" s="6"/>
+      <c r="D11" s="12">
+        <f>(MAX(E11:P11) -E11)/60</f>
         <v>0.96666666666666667</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>348</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="7">
         <v>406</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>107.16</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="10">
-        <f t="shared" si="0"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="12">
+        <f>(MAX(E12:P12) -E12)/60</f>
         <v>8.7166666666666668</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>466</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>926</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>936</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="7">
         <v>989</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>89.33</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="12">
-        <f t="shared" si="0"/>
+        <f>(MAX(E13:P13) -E13)/60</f>
         <v>0</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <v>481</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>208.02</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10">
-        <f t="shared" si="0"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="12">
+        <f>(MAX(E14:P14) -E14)/60</f>
         <v>0.36666666666666664</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <v>732</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="7">
         <v>754</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="6">
         <v>255.24</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="10">
-        <f t="shared" si="0"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="12">
+        <f>(MAX(E15:P15) -E15)/60</f>
         <v>6.4666666666666668</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>325</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <v>474</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="7">
         <v>713</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <v>71.739999999999995</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="10">
-        <f t="shared" si="0"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="12">
+        <f>(MAX(E16:P16) -E16)/60</f>
         <v>4.2666666666666666</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="6">
         <v>396</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <v>640</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="6">
         <v>651</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="7">
         <v>652</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <v>147.19</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="10">
-        <f t="shared" si="0"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="12">
+        <f>(MAX(E17:P17) -E17)/60</f>
         <v>1.2666666666666666</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>488</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="7">
         <v>564</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <v>146.19</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="10">
-        <f t="shared" si="0"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="12">
+        <f>(MAX(E18:P18) -E18)/60</f>
         <v>6.2166666666666668</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="6">
         <v>338</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="6">
         <v>496</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="6">
         <v>510</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="7">
         <v>711</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="6">
         <v>124.82</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="12">
-        <f t="shared" si="0"/>
+        <f>(MAX(E19:P19) -E19)/60</f>
         <v>0</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <v>733</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="6">
         <v>181.85</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="12">
-        <f t="shared" si="0"/>
+        <f>(MAX(E20:P20) -E20)/60</f>
         <v>0</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <v>413</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="6">
         <v>106.2</v>
       </c>
       <c r="D21" s="12">
-        <f t="shared" si="0"/>
+        <f>(MAX(E21:P21) -E21)/60</f>
         <v>0</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <v>596</v>
       </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <v>95.49</v>
+      </c>
+      <c r="D22" s="12">
+        <f>(MAX(E22:P22) -E22)/60</f>
+        <v>6.583333333333333</v>
+      </c>
+      <c r="E22" s="6">
+        <v>218</v>
+      </c>
+      <c r="F22" s="7">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <v>201.48</v>
+      </c>
+      <c r="D23" s="12">
+        <f>(MAX(E23:P23) -E23)/60</f>
+        <v>8.4333333333333336</v>
+      </c>
+      <c r="E23" s="6">
+        <v>263</v>
+      </c>
+      <c r="F23" s="6">
+        <v>355</v>
+      </c>
+      <c r="G23" s="6">
+        <v>411</v>
+      </c>
+      <c r="H23" s="6">
+        <v>686</v>
+      </c>
+      <c r="I23" s="7">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
+        <v>118.35</v>
+      </c>
+      <c r="D24" s="12">
+        <f>(MAX(E24:P24) -E24)/60</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <v>30.86</v>
+      </c>
+      <c r="D25" s="12">
+        <f>(MAX(E25:P25) -E25)/60</f>
+        <v>4.1833333333333336</v>
+      </c>
+      <c r="E25">
+        <v>323</v>
+      </c>
+      <c r="F25">
+        <v>376</v>
+      </c>
+      <c r="G25">
+        <v>545</v>
+      </c>
+      <c r="H25" s="1">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <v>129.05000000000001</v>
+      </c>
+      <c r="D26" s="12">
+        <f>(MAX(E26:P26) -E26)/60</f>
+        <v>5.1333333333333337</v>
+      </c>
+      <c r="E26">
+        <v>339</v>
+      </c>
+      <c r="F26">
+        <v>555</v>
+      </c>
+      <c r="G26">
+        <v>637</v>
+      </c>
+      <c r="H26" s="1">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
+        <v>139.35</v>
+      </c>
+      <c r="D27" s="12">
+        <f>(MAX(E27:P27) -E27)/60</f>
+        <v>2.5833333333333335</v>
+      </c>
+      <c r="E27">
+        <v>445</v>
+      </c>
+      <c r="F27" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6">
+        <v>110.59</v>
+      </c>
+      <c r="D28" s="12">
+        <f>(MAX(E28:P28) -E28)/60</f>
+        <v>1.4833333333333334</v>
+      </c>
+      <c r="E28">
+        <v>513</v>
+      </c>
+      <c r="F28" s="1">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <v>89.41</v>
+      </c>
+      <c r="D29" s="12">
+        <f>(MAX(E29:P29) -E29)/60</f>
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="E29">
+        <v>439</v>
+      </c>
+      <c r="F29" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Experiment.xlsx
+++ b/Experiment.xlsx
@@ -93,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -130,8 +130,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -139,8 +148,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -152,9 +163,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -162,14 +170,26 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -457,8 +477,8 @@
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="11"/>
+    <col min="4" max="4" width="24.1640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -468,18 +488,18 @@
       <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="P1" s="10"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -488,8 +508,8 @@
       <c r="B2">
         <v>79.319999999999993</v>
       </c>
-      <c r="D2" s="12">
-        <f>(MAX(E2:P2) -E2)/60</f>
+      <c r="D2" s="11">
+        <f t="shared" ref="D2:D29" si="0">(MAX(E2:P2) -E2)/60</f>
         <v>0</v>
       </c>
       <c r="E2" s="1">
@@ -503,8 +523,8 @@
       <c r="B3">
         <v>41.54</v>
       </c>
-      <c r="D3" s="12">
-        <f>(MAX(E3:P3) -E3)/60</f>
+      <c r="D3" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E3" s="1">
@@ -518,8 +538,8 @@
       <c r="B4">
         <v>45.83</v>
       </c>
-      <c r="D4" s="12">
-        <f>(MAX(E4:P4) -E4)/60</f>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="1">
@@ -533,8 +553,8 @@
       <c r="B5">
         <v>87.93</v>
       </c>
-      <c r="D5" s="12">
-        <f>(MAX(E5:P5) -E5)/60</f>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
         <v>2.1333333333333333</v>
       </c>
       <c r="E5" s="2">
@@ -563,8 +583,8 @@
       <c r="B6">
         <v>55.27</v>
       </c>
-      <c r="D6" s="12">
-        <f>(MAX(E6:P6) -E6)/60</f>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="1">
@@ -578,8 +598,8 @@
       <c r="B7">
         <v>72.25</v>
       </c>
-      <c r="D7" s="12">
-        <f>(MAX(E7:P7) -E7)/60</f>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="E7" s="2">
@@ -599,8 +619,8 @@
       <c r="B8" s="3">
         <v>23.58</v>
       </c>
-      <c r="D8" s="13">
-        <f>(MAX(E8:P8) -E8)/60</f>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
         <v>8.9666666666666668</v>
       </c>
       <c r="E8" s="4">
@@ -631,7 +651,7 @@
         <v>695</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="P8" s="14"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -641,8 +661,8 @@
         <v>95.4</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="12">
-        <f>(MAX(E9:P9) -E9)/60</f>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
         <v>4.8166666666666664</v>
       </c>
       <c r="E9" s="6">
@@ -663,8 +683,8 @@
         <v>32</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="12">
-        <f>(MAX(E10:P10) -E10)/60</f>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
       <c r="E10" s="6">
@@ -685,8 +705,8 @@
         <v>87.67</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="12">
-        <f>(MAX(E11:P11) -E11)/60</f>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
       <c r="E11" s="6">
@@ -704,8 +724,8 @@
         <v>107.16</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="12">
-        <f>(MAX(E12:P12) -E12)/60</f>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
         <v>8.7166666666666668</v>
       </c>
       <c r="E12" s="6">
@@ -729,8 +749,8 @@
         <v>89.33</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="12">
-        <f>(MAX(E13:P13) -E13)/60</f>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="7">
@@ -745,8 +765,8 @@
         <v>208.02</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="12">
-        <f>(MAX(E14:P14) -E14)/60</f>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
         <v>0.36666666666666664</v>
       </c>
       <c r="E14" s="6">
@@ -764,8 +784,8 @@
         <v>255.24</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="12">
-        <f>(MAX(E15:P15) -E15)/60</f>
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
         <v>6.4666666666666668</v>
       </c>
       <c r="E15" s="6">
@@ -786,8 +806,8 @@
         <v>71.739999999999995</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="12">
-        <f>(MAX(E16:P16) -E16)/60</f>
+      <c r="D16" s="11">
+        <f t="shared" si="0"/>
         <v>4.2666666666666666</v>
       </c>
       <c r="E16" s="6">
@@ -811,8 +831,8 @@
         <v>147.19</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="12">
-        <f>(MAX(E17:P17) -E17)/60</f>
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
         <v>1.2666666666666666</v>
       </c>
       <c r="E17" s="6">
@@ -830,8 +850,8 @@
         <v>146.19</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="12">
-        <f>(MAX(E18:P18) -E18)/60</f>
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
         <v>6.2166666666666668</v>
       </c>
       <c r="E18" s="6">
@@ -855,8 +875,8 @@
         <v>124.82</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="12">
-        <f>(MAX(E19:P19) -E19)/60</f>
+      <c r="D19" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="7">
@@ -871,8 +891,8 @@
         <v>181.85</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="12">
-        <f>(MAX(E20:P20) -E20)/60</f>
+      <c r="D20" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" s="6">
@@ -886,8 +906,8 @@
       <c r="B21" s="6">
         <v>106.2</v>
       </c>
-      <c r="D21" s="12">
-        <f>(MAX(E21:P21) -E21)/60</f>
+      <c r="D21" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" s="7">
@@ -901,8 +921,8 @@
       <c r="B22" s="6">
         <v>95.49</v>
       </c>
-      <c r="D22" s="12">
-        <f>(MAX(E22:P22) -E22)/60</f>
+      <c r="D22" s="11">
+        <f t="shared" si="0"/>
         <v>6.583333333333333</v>
       </c>
       <c r="E22" s="6">
@@ -919,8 +939,8 @@
       <c r="B23" s="6">
         <v>201.48</v>
       </c>
-      <c r="D23" s="12">
-        <f>(MAX(E23:P23) -E23)/60</f>
+      <c r="D23" s="11">
+        <f t="shared" si="0"/>
         <v>8.4333333333333336</v>
       </c>
       <c r="E23" s="6">
@@ -946,8 +966,8 @@
       <c r="B24" s="6">
         <v>118.35</v>
       </c>
-      <c r="D24" s="12">
-        <f>(MAX(E24:P24) -E24)/60</f>
+      <c r="D24" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24" s="7">
@@ -961,8 +981,8 @@
       <c r="B25" s="6">
         <v>30.86</v>
       </c>
-      <c r="D25" s="12">
-        <f>(MAX(E25:P25) -E25)/60</f>
+      <c r="D25" s="11">
+        <f t="shared" si="0"/>
         <v>4.1833333333333336</v>
       </c>
       <c r="E25">
@@ -985,8 +1005,8 @@
       <c r="B26" s="6">
         <v>129.05000000000001</v>
       </c>
-      <c r="D26" s="12">
-        <f>(MAX(E26:P26) -E26)/60</f>
+      <c r="D26" s="11">
+        <f t="shared" si="0"/>
         <v>5.1333333333333337</v>
       </c>
       <c r="E26">
@@ -1009,8 +1029,8 @@
       <c r="B27" s="6">
         <v>139.35</v>
       </c>
-      <c r="D27" s="12">
-        <f>(MAX(E27:P27) -E27)/60</f>
+      <c r="D27" s="11">
+        <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
       </c>
       <c r="E27">
@@ -1027,8 +1047,8 @@
       <c r="B28" s="6">
         <v>110.59</v>
       </c>
-      <c r="D28" s="12">
-        <f>(MAX(E28:P28) -E28)/60</f>
+      <c r="D28" s="11">
+        <f t="shared" si="0"/>
         <v>1.4833333333333334</v>
       </c>
       <c r="E28">
@@ -1045,8 +1065,8 @@
       <c r="B29" s="6">
         <v>89.41</v>
       </c>
-      <c r="D29" s="12">
-        <f>(MAX(E29:P29) -E29)/60</f>
+      <c r="D29" s="11">
+        <f t="shared" si="0"/>
         <v>0.78333333333333333</v>
       </c>
       <c r="E29">
@@ -1073,15 +1093,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9" style="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
@@ -1089,22 +1115,251 @@
         <v>2</v>
       </c>
       <c r="C1" s="8"/>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>54.07</v>
+      </c>
+      <c r="E2" s="17">
+        <v>254</v>
+      </c>
+      <c r="F2">
+        <v>310</v>
+      </c>
+      <c r="G2">
+        <v>329</v>
+      </c>
+      <c r="H2" s="1">
+        <v>329</v>
+      </c>
+      <c r="I2">
+        <v>468</v>
+      </c>
+      <c r="J2">
+        <v>835</v>
+      </c>
+      <c r="K2">
+        <v>1019</v>
+      </c>
+      <c r="L2">
+        <v>1508</v>
+      </c>
+      <c r="M2">
+        <v>2228</v>
+      </c>
+      <c r="N2">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>54.07</v>
+      </c>
+      <c r="E3" s="17">
+        <v>254</v>
+      </c>
+      <c r="F3">
+        <v>310</v>
+      </c>
+      <c r="G3">
+        <v>329</v>
+      </c>
+      <c r="H3" s="1">
+        <v>329</v>
+      </c>
+      <c r="I3">
+        <v>468</v>
+      </c>
+      <c r="J3">
+        <v>835</v>
+      </c>
+      <c r="K3">
+        <v>1019</v>
+      </c>
+      <c r="L3">
+        <v>1508</v>
+      </c>
+      <c r="M3">
+        <v>2228</v>
+      </c>
+      <c r="N3">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>54.07</v>
+      </c>
+      <c r="E4" s="17">
+        <v>254</v>
+      </c>
+      <c r="F4">
+        <v>310</v>
+      </c>
+      <c r="G4">
+        <v>329</v>
+      </c>
+      <c r="H4" s="1">
+        <v>329</v>
+      </c>
+      <c r="I4">
+        <v>468</v>
+      </c>
+      <c r="J4">
+        <v>835</v>
+      </c>
+      <c r="K4">
+        <v>1019</v>
+      </c>
+      <c r="L4">
+        <v>1508</v>
+      </c>
+      <c r="M4">
+        <v>2228</v>
+      </c>
+      <c r="N4">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>54.07</v>
+      </c>
+      <c r="E5" s="17">
+        <v>254</v>
+      </c>
+      <c r="F5">
+        <v>310</v>
+      </c>
+      <c r="G5">
+        <v>329</v>
+      </c>
+      <c r="H5" s="1">
+        <v>329</v>
+      </c>
+      <c r="I5">
+        <v>468</v>
+      </c>
+      <c r="J5">
+        <v>835</v>
+      </c>
+      <c r="K5">
+        <v>1019</v>
+      </c>
+      <c r="L5">
+        <v>1508</v>
+      </c>
+      <c r="M5">
+        <v>2228</v>
+      </c>
+      <c r="N5">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>54.07</v>
+      </c>
+      <c r="E6" s="17">
+        <v>254</v>
+      </c>
+      <c r="F6">
+        <v>310</v>
+      </c>
+      <c r="G6">
+        <v>329</v>
+      </c>
+      <c r="H6" s="1">
+        <v>329</v>
+      </c>
+      <c r="I6">
+        <v>468</v>
+      </c>
+      <c r="J6">
+        <v>835</v>
+      </c>
+      <c r="K6">
+        <v>1019</v>
+      </c>
+      <c r="L6">
+        <v>1508</v>
+      </c>
+      <c r="M6">
+        <v>2228</v>
+      </c>
+      <c r="N6">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>54.07</v>
+      </c>
+      <c r="E7" s="17">
+        <v>254</v>
+      </c>
+      <c r="F7">
+        <v>310</v>
+      </c>
+      <c r="G7">
+        <v>329</v>
+      </c>
+      <c r="H7" s="1">
+        <v>329</v>
+      </c>
+      <c r="I7">
+        <v>468</v>
+      </c>
+      <c r="J7">
+        <v>835</v>
+      </c>
+      <c r="K7">
+        <v>1019</v>
+      </c>
+      <c r="L7">
+        <v>1508</v>
+      </c>
+      <c r="M7">
+        <v>2228</v>
+      </c>
+      <c r="N7">
+        <v>2274</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Experiment.xlsx
+++ b/Experiment.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="500" yWindow="460" windowWidth="25100" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="500" yWindow="460" windowWidth="25100" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Only update the called taxi" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="10">
   <si>
     <t>Taxi Arrival time</t>
   </si>
@@ -41,12 +42,27 @@
   <si>
     <t>Experiment (500 cars, 20 taxis, initially 80% on major roads)</t>
   </si>
+  <si>
+    <t>Experiment SEED (500 cars, 20 taxis, initially 80% on major roads)</t>
+  </si>
+  <si>
+    <t>update route every 30 second</t>
+  </si>
+  <si>
+    <t>no update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not update route </t>
+  </si>
+  <si>
+    <t>Update route every 30s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,6 +94,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -93,7 +116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -139,8 +162,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -150,8 +184,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -180,16 +222,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -200,6 +262,1107 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0603864829396325"/>
+          <c:y val="0.0254283318751823"/>
+          <c:w val="0.889613517060367"/>
+          <c:h val="0.575632473024205"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Update route every 30s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$30:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$31:$N$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not update route </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$30:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$32:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2106283616"/>
+        <c:axId val="2132985648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2106283616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Arrival Order</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2132985648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2132985648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2106283616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
+        <c:minorUnit val="1.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1644650</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,11 +1657,11 @@
       <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1093,23 +2256,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="A1:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9" style="17" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="17" customWidth="1"/>
+    <col min="6" max="14" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="144" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>2</v>
@@ -1121,238 +2286,931 @@
       <c r="E1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>54.07</v>
-      </c>
-      <c r="E2" s="17">
-        <v>254</v>
-      </c>
-      <c r="F2">
-        <v>310</v>
-      </c>
-      <c r="G2">
-        <v>329</v>
-      </c>
-      <c r="H2" s="1">
-        <v>329</v>
-      </c>
-      <c r="I2">
-        <v>468</v>
-      </c>
-      <c r="J2">
-        <v>835</v>
-      </c>
-      <c r="K2">
-        <v>1019</v>
-      </c>
-      <c r="L2">
-        <v>1508</v>
-      </c>
-      <c r="M2">
-        <v>2228</v>
-      </c>
-      <c r="N2">
-        <v>2274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>54.07</v>
-      </c>
-      <c r="E3" s="17">
-        <v>254</v>
-      </c>
-      <c r="F3">
-        <v>310</v>
-      </c>
-      <c r="G3">
-        <v>329</v>
-      </c>
-      <c r="H3" s="1">
-        <v>329</v>
-      </c>
-      <c r="I3">
-        <v>468</v>
-      </c>
-      <c r="J3">
-        <v>835</v>
-      </c>
-      <c r="K3">
-        <v>1019</v>
-      </c>
-      <c r="L3">
-        <v>1508</v>
-      </c>
-      <c r="M3">
-        <v>2228</v>
-      </c>
-      <c r="N3">
-        <v>2274</v>
+        <v>114.53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="21">
+        <v>703</v>
+      </c>
+      <c r="F2" s="6">
+        <v>952</v>
+      </c>
+      <c r="G2" s="6">
+        <v>952</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1095</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1105</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1472</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1702</v>
+      </c>
+      <c r="L2" s="6">
+        <v>2103</v>
+      </c>
+      <c r="M2" s="6">
+        <v>2258</v>
+      </c>
+      <c r="N2" s="6">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>114.53</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="22">
+        <v>584</v>
+      </c>
+      <c r="F3" s="4">
+        <v>698</v>
+      </c>
+      <c r="G3" s="5">
+        <v>766</v>
+      </c>
+      <c r="H3" s="4">
+        <v>776</v>
+      </c>
+      <c r="I3" s="4">
+        <v>958</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1021</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1317</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1337</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1490</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1702</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>54.07</v>
-      </c>
-      <c r="E4" s="17">
-        <v>254</v>
-      </c>
-      <c r="F4">
-        <v>310</v>
-      </c>
-      <c r="G4">
-        <v>329</v>
-      </c>
-      <c r="H4" s="1">
-        <v>329</v>
-      </c>
-      <c r="I4">
-        <v>468</v>
-      </c>
-      <c r="J4">
-        <v>835</v>
-      </c>
-      <c r="K4">
-        <v>1019</v>
-      </c>
-      <c r="L4">
-        <v>1508</v>
-      </c>
-      <c r="M4">
-        <v>2228</v>
-      </c>
-      <c r="N4">
-        <v>2274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>54.07</v>
-      </c>
-      <c r="E5" s="17">
-        <v>254</v>
-      </c>
-      <c r="F5">
-        <v>310</v>
-      </c>
-      <c r="G5">
-        <v>329</v>
-      </c>
-      <c r="H5" s="1">
-        <v>329</v>
-      </c>
-      <c r="I5">
-        <v>468</v>
-      </c>
-      <c r="J5">
-        <v>835</v>
-      </c>
-      <c r="K5">
-        <v>1019</v>
-      </c>
-      <c r="L5">
-        <v>1508</v>
-      </c>
-      <c r="M5">
-        <v>2228</v>
-      </c>
-      <c r="N5">
-        <v>2274</v>
+        <v>136.13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="21">
+        <v>405</v>
+      </c>
+      <c r="F4" s="6">
+        <v>830</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1074</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1139</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1335</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1586</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1651</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1756</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1904</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>133.88</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="4">
+        <v>395</v>
+      </c>
+      <c r="F5" s="5">
+        <v>486</v>
+      </c>
+      <c r="G5" s="4">
+        <v>829</v>
+      </c>
+      <c r="H5" s="4">
+        <v>912</v>
+      </c>
+      <c r="I5" s="4">
+        <v>997</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1075</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1141</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1249</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1418</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1482</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>127.11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="21">
+        <v>497</v>
+      </c>
+      <c r="F6" s="7">
+        <v>746</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1121</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1386</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1582</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1655</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1832</v>
+      </c>
+      <c r="L6" s="6">
+        <v>2366</v>
+      </c>
+      <c r="M6" s="6">
+        <v>2451</v>
+      </c>
+      <c r="N6" s="6">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>127.11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="22">
+        <v>408</v>
+      </c>
+      <c r="F7" s="4">
+        <v>494</v>
+      </c>
+      <c r="G7" s="5">
+        <v>586</v>
+      </c>
+      <c r="H7" s="4">
+        <v>883</v>
+      </c>
+      <c r="I7" s="4">
+        <v>912</v>
+      </c>
+      <c r="J7" s="4">
+        <v>951</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1119</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1310</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1365</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6">
+        <v>134.86000000000001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="21">
+        <v>518</v>
+      </c>
+      <c r="F8" s="6">
+        <v>834</v>
+      </c>
+      <c r="G8" s="6">
+        <v>846</v>
+      </c>
+      <c r="H8" s="6">
+        <v>865</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1090</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1203</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1217</v>
+      </c>
+      <c r="L8" s="6">
+        <v>2274</v>
+      </c>
+      <c r="M8" s="6">
+        <v>2289</v>
+      </c>
+      <c r="N8" s="6">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>191.37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="20">
+        <v>606</v>
+      </c>
+      <c r="F9" s="4">
+        <v>606</v>
+      </c>
+      <c r="G9" s="4">
+        <v>670</v>
+      </c>
+      <c r="H9" s="4">
+        <v>910</v>
+      </c>
+      <c r="I9" s="4">
+        <v>922</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1022</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1096</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1182</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1292</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>54.07</v>
-      </c>
-      <c r="E6" s="17">
-        <v>254</v>
-      </c>
-      <c r="F6">
-        <v>310</v>
-      </c>
-      <c r="G6">
-        <v>329</v>
-      </c>
-      <c r="H6" s="1">
-        <v>329</v>
-      </c>
-      <c r="I6">
-        <v>468</v>
-      </c>
-      <c r="J6">
-        <v>835</v>
-      </c>
-      <c r="K6">
-        <v>1019</v>
-      </c>
-      <c r="L6">
-        <v>1508</v>
-      </c>
-      <c r="M6">
-        <v>2228</v>
-      </c>
-      <c r="N6">
-        <v>2274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="B10" s="6">
+        <v>117.13</v>
+      </c>
+      <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>54.07</v>
-      </c>
-      <c r="E7" s="17">
-        <v>254</v>
-      </c>
-      <c r="F7">
-        <v>310</v>
-      </c>
-      <c r="G7">
-        <v>329</v>
-      </c>
-      <c r="H7" s="1">
-        <v>329</v>
-      </c>
-      <c r="I7">
-        <v>468</v>
-      </c>
-      <c r="J7">
-        <v>835</v>
-      </c>
-      <c r="K7">
-        <v>1019</v>
-      </c>
-      <c r="L7">
-        <v>1508</v>
-      </c>
-      <c r="M7">
-        <v>2228</v>
-      </c>
-      <c r="N7">
-        <v>2274</v>
+      <c r="E10" s="21">
+        <v>517</v>
+      </c>
+      <c r="F10" s="6">
+        <v>770</v>
+      </c>
+      <c r="G10" s="6">
+        <v>850</v>
+      </c>
+      <c r="H10" s="7">
+        <v>947</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1214</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1400</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1897</v>
+      </c>
+      <c r="L10" s="6">
+        <v>2264</v>
+      </c>
+      <c r="M10" s="6">
+        <v>2326</v>
+      </c>
+      <c r="N10" s="6">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>117.13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="22">
+        <v>680</v>
+      </c>
+      <c r="F11" s="4">
+        <v>680</v>
+      </c>
+      <c r="G11" s="4">
+        <v>680</v>
+      </c>
+      <c r="H11" s="4">
+        <v>765</v>
+      </c>
+      <c r="I11" s="5">
+        <v>838</v>
+      </c>
+      <c r="J11" s="4">
+        <v>950</v>
+      </c>
+      <c r="K11" s="4">
+        <v>964</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1215</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1306</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6">
+        <v>210.41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="21">
+        <v>962</v>
+      </c>
+      <c r="F12" s="6">
+        <v>972</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1220</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1282</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1458</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1479</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1494</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1564</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1718</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3">
+        <v>210.96</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="22">
+        <v>336</v>
+      </c>
+      <c r="F13" s="4">
+        <v>614</v>
+      </c>
+      <c r="G13" s="4">
+        <v>937</v>
+      </c>
+      <c r="H13" s="4">
+        <v>948</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1113</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1123</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1219</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1371</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1380</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6">
+        <v>124.98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="19">
+        <v>920</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1011</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1097</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1154</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1266</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1866</v>
+      </c>
+      <c r="K14" s="6">
+        <v>2106</v>
+      </c>
+      <c r="L14" s="6">
+        <v>2120</v>
+      </c>
+      <c r="M14" s="6">
+        <v>2177</v>
+      </c>
+      <c r="N14" s="6">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="20">
+        <v>716</v>
+      </c>
+      <c r="F15" s="4">
+        <v>724</v>
+      </c>
+      <c r="G15" s="4">
+        <v>738</v>
+      </c>
+      <c r="H15" s="3">
+        <v>738</v>
+      </c>
+      <c r="I15" s="4">
+        <v>821</v>
+      </c>
+      <c r="J15" s="4">
+        <v>927</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1096</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1196</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1607</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6">
+        <v>95.83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="21">
+        <v>507</v>
+      </c>
+      <c r="F16" s="6">
+        <v>573</v>
+      </c>
+      <c r="G16" s="7">
+        <v>647</v>
+      </c>
+      <c r="H16" s="6">
+        <v>739</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1039</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1219</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1536</v>
+      </c>
+      <c r="L16" s="6">
+        <v>1593</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1770</v>
+      </c>
+      <c r="N16" s="6">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4">
+        <v>95.83</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="22">
+        <v>489</v>
+      </c>
+      <c r="F17" s="5">
+        <v>665</v>
+      </c>
+      <c r="G17" s="4">
+        <v>665</v>
+      </c>
+      <c r="H17" s="4">
+        <v>666</v>
+      </c>
+      <c r="I17" s="4">
+        <v>668</v>
+      </c>
+      <c r="J17" s="4">
+        <v>823</v>
+      </c>
+      <c r="K17" s="4">
+        <v>990</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1121</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1639</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6">
+        <v>39.64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="19">
+        <v>552</v>
+      </c>
+      <c r="F18" s="6">
+        <v>985</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1046</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1589</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1646</v>
+      </c>
+      <c r="J18" s="6">
+        <v>2023</v>
+      </c>
+      <c r="K18" s="6">
+        <v>2195</v>
+      </c>
+      <c r="L18" s="6">
+        <v>2430</v>
+      </c>
+      <c r="M18" s="6">
+        <v>2626</v>
+      </c>
+      <c r="N18" s="6">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6">
+        <v>39.64</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="20">
+        <v>527</v>
+      </c>
+      <c r="F19" s="4">
+        <v>892</v>
+      </c>
+      <c r="G19" s="4">
+        <v>892</v>
+      </c>
+      <c r="H19" s="4">
+        <v>906</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1136</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1420</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1478</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1504</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1589</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6">
+        <v>65.83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="21">
+        <v>156</v>
+      </c>
+      <c r="F20" s="7">
+        <v>421</v>
+      </c>
+      <c r="G20" s="6">
+        <v>434</v>
+      </c>
+      <c r="H20" s="6">
+        <v>509</v>
+      </c>
+      <c r="I20" s="6">
+        <v>576</v>
+      </c>
+      <c r="J20" s="6">
+        <v>763</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1665</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1825</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1835</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="22">
+        <v>216</v>
+      </c>
+      <c r="F21" s="4">
+        <v>533</v>
+      </c>
+      <c r="G21" s="5">
+        <v>581</v>
+      </c>
+      <c r="H21" s="4">
+        <v>704</v>
+      </c>
+      <c r="I21" s="4">
+        <v>704</v>
+      </c>
+      <c r="J21" s="4">
+        <v>735</v>
+      </c>
+      <c r="K21" s="4">
+        <v>810</v>
+      </c>
+      <c r="L21" s="4">
+        <v>896</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1089</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E30" s="23">
+        <v>1</v>
+      </c>
+      <c r="F30" s="24">
+        <v>2</v>
+      </c>
+      <c r="G30" s="24">
+        <v>3</v>
+      </c>
+      <c r="H30" s="24">
+        <v>4</v>
+      </c>
+      <c r="I30" s="24">
+        <v>5</v>
+      </c>
+      <c r="J30" s="24">
+        <v>6</v>
+      </c>
+      <c r="K30" s="24">
+        <v>7</v>
+      </c>
+      <c r="L30" s="24">
+        <v>8</v>
+      </c>
+      <c r="M30" s="24">
+        <v>9</v>
+      </c>
+      <c r="N30" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D31" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="26">
+        <v>2</v>
+      </c>
+      <c r="F31" s="27">
+        <v>2</v>
+      </c>
+      <c r="G31" s="27">
+        <v>1</v>
+      </c>
+      <c r="H31" s="27">
+        <v>3</v>
+      </c>
+      <c r="I31" s="27">
+        <v>0</v>
+      </c>
+      <c r="J31" s="27">
+        <v>1</v>
+      </c>
+      <c r="K31" s="27">
+        <v>0</v>
+      </c>
+      <c r="L31" s="27">
+        <v>1</v>
+      </c>
+      <c r="M31" s="27">
+        <v>0</v>
+      </c>
+      <c r="N31" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D32" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="26">
+        <v>3</v>
+      </c>
+      <c r="F32" s="27">
+        <v>2</v>
+      </c>
+      <c r="G32" s="27">
+        <v>3</v>
+      </c>
+      <c r="H32" s="27">
+        <v>0</v>
+      </c>
+      <c r="I32" s="27">
+        <v>1</v>
+      </c>
+      <c r="J32" s="27">
+        <v>0</v>
+      </c>
+      <c r="K32" s="27">
+        <v>0</v>
+      </c>
+      <c r="L32" s="27">
+        <v>1</v>
+      </c>
+      <c r="M32" s="27">
+        <v>0</v>
+      </c>
+      <c r="N32" s="27">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1361,5 +3219,437 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Experiment.xlsx
+++ b/Experiment.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="500" yWindow="460" windowWidth="25100" windowHeight="15540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="500" yWindow="460" windowWidth="25100" windowHeight="15540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Only update the called taxi" sheetId="4" r:id="rId3"/>
+    <sheet name="Only updated the called taxi" sheetId="6" r:id="rId3"/>
+    <sheet name="Only update the taxis' routing" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="22">
   <si>
     <t>Taxi Arrival time</t>
   </si>
@@ -56,6 +57,42 @@
   </si>
   <si>
     <t>Update route every 30s</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no update </t>
+  </si>
+  <si>
+    <t>Crash time (second)</t>
+  </si>
+  <si>
+    <t>Time period for averaging speed (second)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Update routing every 30 seconds using average speed</t>
+  </si>
+  <si>
+    <t>Update routing every 30 seconds using current speed</t>
+  </si>
+  <si>
+    <t>No update</t>
+  </si>
+  <si>
+    <t>on the same road</t>
   </si>
 </sst>
 </file>
@@ -102,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,8 +152,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -173,8 +216,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -192,8 +270,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -212,9 +300,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -234,8 +319,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -244,6 +367,11 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -252,6 +380,11 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -542,11 +675,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2106283616"/>
-        <c:axId val="2132985648"/>
+        <c:axId val="-2127088704"/>
+        <c:axId val="-2127068960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2106283616"/>
+        <c:axId val="-2127088704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -645,7 +778,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132985648"/>
+        <c:crossAx val="-2127068960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -653,7 +786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132985648"/>
+        <c:axId val="-2127068960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,7 +837,1639 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106283616"/>
+        <c:crossAx val="-2127088704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
+        <c:minorUnit val="1.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Arrival</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Order for the Called Taxi</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Only updated the called taxi'!$D$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Update routing every 30 seconds using average speed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Only updated the called taxi'!$E$42:$X$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Only updated the called taxi'!$E$43:$X$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Only updated the called taxi'!$D$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Update routing every 30 seconds using current speed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Only updated the called taxi'!$E$42:$X$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Only updated the called taxi'!$E$44:$X$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Only updated the called taxi'!$D$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No update</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Only updated the called taxi'!$E$42:$X$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Only updated the called taxi'!$E$45:$X$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="2140465632"/>
+        <c:axId val="2140218768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2140465632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Arrival</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Order</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140218768"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2140218768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Times</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140465632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
+        <c:minorUnit val="1.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Arrival</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Order for the Called Taxi</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Only update the taxis'' routing'!$D$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Update routing every 30 seconds using average speed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Only update the taxis'' routing'!$E$48:$X$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Only update the taxis'' routing'!$E$49:$X$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Only update the taxis'' routing'!$D$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Update routing every 30 seconds using current speed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Only update the taxis'' routing'!$E$48:$X$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Only update the taxis'' routing'!$E$50:$X$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Only update the taxis'' routing'!$D$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No update</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Only update the taxis'' routing'!$E$48:$X$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Only update the taxis'' routing'!$E$51:$X$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="-2129119952"/>
+        <c:axId val="-2129113744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2129119952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Arrival</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Order</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2129113744"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2129113744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Times</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2129119952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -788,6 +2553,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1330,6 +3175,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1349,6 +4200,80 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14254</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>2073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>634998</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38878</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14254</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>2073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>634998</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38878</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1657,11 +4582,11 @@
       <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
       <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2259,7 +5184,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="A1:N21"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2268,7 +5193,7 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="16" customWidth="1"/>
     <col min="6" max="14" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2280,17 +5205,17 @@
         <v>2</v>
       </c>
       <c r="C1" s="8"/>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -2302,7 +5227,7 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="20">
         <v>703</v>
       </c>
       <c r="F2" s="6">
@@ -2343,7 +5268,7 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>584</v>
       </c>
       <c r="F3" s="4">
@@ -2384,7 +5309,7 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>405</v>
       </c>
       <c r="F4" s="6">
@@ -2467,7 +5392,7 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>497</v>
       </c>
       <c r="F6" s="7">
@@ -2508,7 +5433,7 @@
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>408</v>
       </c>
       <c r="F7" s="4">
@@ -2549,7 +5474,7 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>518</v>
       </c>
       <c r="F8" s="6">
@@ -2590,7 +5515,7 @@
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>606</v>
       </c>
       <c r="F9" s="4">
@@ -2631,7 +5556,7 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>517</v>
       </c>
       <c r="F10" s="6">
@@ -2672,7 +5597,7 @@
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="21">
         <v>680</v>
       </c>
       <c r="F11" s="4">
@@ -2713,7 +5638,7 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>962</v>
       </c>
       <c r="F12" s="6">
@@ -2754,7 +5679,7 @@
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <v>336</v>
       </c>
       <c r="F13" s="4">
@@ -2795,7 +5720,7 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>920</v>
       </c>
       <c r="F14" s="6">
@@ -2836,7 +5761,7 @@
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>716</v>
       </c>
       <c r="F15" s="4">
@@ -2877,7 +5802,7 @@
       <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>507</v>
       </c>
       <c r="F16" s="6">
@@ -2918,7 +5843,7 @@
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <v>489</v>
       </c>
       <c r="F17" s="5">
@@ -2959,7 +5884,7 @@
       <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <v>552</v>
       </c>
       <c r="F18" s="6">
@@ -3000,7 +5925,7 @@
       <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="19">
         <v>527</v>
       </c>
       <c r="F19" s="4">
@@ -3041,7 +5966,7 @@
       <c r="C20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <v>156</v>
       </c>
       <c r="F20" s="7">
@@ -3080,7 +6005,7 @@
       <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="21">
         <v>216</v>
       </c>
       <c r="F21" s="4">
@@ -3112,104 +6037,104 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E30" s="23">
+      <c r="E30" s="22">
         <v>1</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="23">
         <v>2</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="23">
         <v>3</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="23">
         <v>4</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="23">
         <v>5</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="23">
         <v>6</v>
       </c>
-      <c r="K30" s="24">
+      <c r="K30" s="23">
         <v>7</v>
       </c>
-      <c r="L30" s="24">
+      <c r="L30" s="23">
         <v>8</v>
       </c>
-      <c r="M30" s="24">
+      <c r="M30" s="23">
         <v>9</v>
       </c>
-      <c r="N30" s="24">
+      <c r="N30" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="25">
         <v>2</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="26">
         <v>2</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="26">
         <v>1</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H31" s="26">
         <v>3</v>
       </c>
-      <c r="I31" s="27">
+      <c r="I31" s="26">
         <v>0</v>
       </c>
-      <c r="J31" s="27">
+      <c r="J31" s="26">
         <v>1</v>
       </c>
-      <c r="K31" s="27">
+      <c r="K31" s="26">
         <v>0</v>
       </c>
-      <c r="L31" s="27">
+      <c r="L31" s="26">
         <v>1</v>
       </c>
-      <c r="M31" s="27">
+      <c r="M31" s="26">
         <v>0</v>
       </c>
-      <c r="N31" s="27">
+      <c r="N31" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="25">
         <v>3</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="26">
         <v>2</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="26">
         <v>3</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="26">
         <v>0</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I32" s="26">
         <v>1</v>
       </c>
-      <c r="J32" s="27">
+      <c r="J32" s="26">
         <v>0</v>
       </c>
-      <c r="K32" s="27">
+      <c r="K32" s="26">
         <v>0</v>
       </c>
-      <c r="L32" s="27">
+      <c r="L32" s="26">
         <v>1</v>
       </c>
-      <c r="M32" s="27">
+      <c r="M32" s="26">
         <v>0</v>
       </c>
-      <c r="N32" s="27">
+      <c r="N32" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3225,86 +6150,2026 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="128" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:24" ht="64" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="29">
+        <v>2</v>
+      </c>
+      <c r="G2" s="29">
+        <v>3</v>
+      </c>
+      <c r="H2" s="29">
+        <v>4</v>
+      </c>
+      <c r="I2" s="31">
+        <v>5</v>
+      </c>
+      <c r="J2" s="31">
         <v>6</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="K2" s="31">
+        <v>7</v>
+      </c>
+      <c r="L2" s="31">
+        <v>8</v>
+      </c>
+      <c r="M2" s="31">
+        <v>9</v>
+      </c>
+      <c r="N2" s="31">
+        <v>10</v>
+      </c>
+      <c r="O2" s="31">
+        <v>11</v>
+      </c>
+      <c r="P2" s="31">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="31">
+        <v>13</v>
+      </c>
+      <c r="R2" s="31">
+        <v>14</v>
+      </c>
+      <c r="S2" s="31">
+        <v>15</v>
+      </c>
+      <c r="T2" s="31">
+        <v>16</v>
+      </c>
+      <c r="U2" s="31">
+        <v>17</v>
+      </c>
+      <c r="V2" s="31">
+        <v>18</v>
+      </c>
+      <c r="W2" s="31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>409.19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="20">
+        <v>643</v>
+      </c>
+      <c r="F3" s="6">
+        <v>995</v>
+      </c>
+      <c r="G3" s="33">
+        <v>1439</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1061</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1770</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1809</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1874</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1988</v>
+      </c>
+      <c r="M3" s="6">
+        <v>2104</v>
+      </c>
+      <c r="N3" s="6">
+        <v>2147</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>112.57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="20">
+        <v>931</v>
+      </c>
+      <c r="F4">
+        <v>980</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1027</v>
+      </c>
+      <c r="H4" s="33">
+        <v>1163</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1176</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1477</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1502</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1770</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1771</v>
+      </c>
+      <c r="N4" s="6">
+        <v>2483</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="21">
+        <v>643</v>
+      </c>
+      <c r="F5" s="4">
+        <v>995</v>
+      </c>
+      <c r="G5" s="32">
+        <v>1316</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1502</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1770</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1809</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1874</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1988</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2104</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2147</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>190.47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="34">
+        <v>807</v>
+      </c>
+      <c r="F6" s="6">
+        <v>961</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1337</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1643</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1643</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2035</v>
+      </c>
+      <c r="K6" s="6">
+        <v>3024</v>
+      </c>
+      <c r="L6" s="6">
+        <v>3080</v>
+      </c>
+      <c r="M6" s="6">
+        <v>3099</v>
+      </c>
+      <c r="N6" s="6">
+        <v>3100</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="20">
+        <v>636</v>
+      </c>
+      <c r="F7" s="33">
+        <v>732</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1134</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1240</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1468</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2298</v>
+      </c>
+      <c r="K7" s="6">
+        <v>2348</v>
+      </c>
+      <c r="L7" s="6">
+        <v>2390</v>
+      </c>
+      <c r="M7" s="6">
+        <v>2566</v>
+      </c>
+      <c r="N7" s="6">
+        <v>2579</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="32">
+        <v>807</v>
+      </c>
+      <c r="F8" s="4">
+        <v>961</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1331</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1643</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1643</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2035</v>
+      </c>
+      <c r="K8" s="4">
+        <v>3024</v>
+      </c>
+      <c r="L8" s="4">
+        <v>3080</v>
+      </c>
+      <c r="M8" s="4">
+        <v>3099</v>
+      </c>
+      <c r="N8" s="4">
+        <v>3100</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>620.28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1017</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1190</v>
+      </c>
+      <c r="G9" s="33">
+        <v>1373</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1697</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1732</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2201</v>
+      </c>
+      <c r="K9" s="6">
+        <v>2248</v>
+      </c>
+      <c r="L9" s="6">
+        <v>2596</v>
+      </c>
+      <c r="M9" s="6">
+        <v>2609</v>
+      </c>
+      <c r="N9" s="6">
+        <v>2728</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="6">
+        <v>119.84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="20">
+        <v>844</v>
+      </c>
+      <c r="F10" s="33">
+        <v>855</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1190</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1142</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1668</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1712</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1732</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1896</v>
+      </c>
+      <c r="M10" s="6">
+        <v>2066</v>
+      </c>
+      <c r="N10" s="6">
+        <v>2073</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="35">
+        <v>844</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1017</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1150</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1697</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1844</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2241</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2255</v>
+      </c>
+      <c r="L11" s="4">
+        <v>2596</v>
+      </c>
+      <c r="M11" s="4">
+        <v>2609</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2728</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6">
+        <v>304.45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="20">
+        <v>1280</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1346</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1660</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1786</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1795</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1829</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1997</v>
+      </c>
+      <c r="L12" s="6">
+        <v>2127</v>
+      </c>
+      <c r="M12" s="6">
+        <v>2166</v>
+      </c>
+      <c r="N12" s="33">
+        <v>2193</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B13" s="6">
+        <v>126.01</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="20">
+        <v>923</v>
+      </c>
+      <c r="F13" s="6">
+        <v>950</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1150</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1281</v>
+      </c>
+      <c r="I13" s="33">
+        <v>1450</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1488</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1495</v>
+      </c>
+      <c r="L13" s="6">
+        <v>1787</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1828</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1954</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1319</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1353</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1660</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1787</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1826</v>
+      </c>
+      <c r="J14" s="32">
+        <v>1835</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1931</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1994</v>
+      </c>
+      <c r="M14" s="4">
+        <v>2004</v>
+      </c>
+      <c r="N14" s="4">
+        <v>2166</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6">
+        <v>193.12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="20">
+        <v>791</v>
+      </c>
+      <c r="F15" s="6">
+        <v>865</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1089</v>
+      </c>
+      <c r="H15" s="33">
+        <v>1091</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1091</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1210</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1432</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1568</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1734</v>
+      </c>
+      <c r="N15" s="6">
+        <v>1744</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="6">
+        <v>58.65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="34">
+        <v>860</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1029</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1048</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1057</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1062</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1070</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1213</v>
+      </c>
+      <c r="L16" s="6">
+        <v>1377</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1384</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1396</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="21">
+        <v>746</v>
+      </c>
+      <c r="F17" s="4">
+        <v>866</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1089</v>
+      </c>
+      <c r="H17" s="32">
+        <v>1091</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1091</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1091</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1432</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1608</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1645</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1776</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6">
+        <v>364.07</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="20">
+        <v>1071</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1078</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1365</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1374</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1568</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1568</v>
+      </c>
+      <c r="K18" s="33">
+        <v>1602</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1732</v>
+      </c>
+      <c r="M18" s="6">
+        <v>2225</v>
+      </c>
+      <c r="N18" s="6">
+        <v>2280</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B19" s="6">
+        <v>126.88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="20">
+        <v>827</v>
+      </c>
+      <c r="F19" s="33">
+        <v>876</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1134</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1144</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1403</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1404</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1409</v>
+      </c>
+      <c r="L19" s="6">
+        <v>1731</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1742</v>
+      </c>
+      <c r="N19" s="6">
+        <v>2226</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1071</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1142</v>
+      </c>
+      <c r="G20" s="32">
+        <v>1373</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1373</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1404</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1530</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1368</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1732</v>
+      </c>
+      <c r="M20" s="4">
+        <v>2061</v>
+      </c>
+      <c r="N20" s="4">
+        <v>2187</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6">
+        <v>318.58999999999997</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="20">
+        <v>907</v>
+      </c>
+      <c r="F21" s="33">
+        <v>944</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1273</v>
+      </c>
+      <c r="H21" s="37">
+        <v>1600</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1922</v>
+      </c>
+      <c r="J21" s="6">
+        <v>2048</v>
+      </c>
+      <c r="K21" s="6">
+        <v>2252</v>
+      </c>
+      <c r="L21" s="6">
+        <v>2254</v>
+      </c>
+      <c r="M21" s="6">
+        <v>2261</v>
+      </c>
+      <c r="N21" s="6">
+        <v>2373</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B22" s="6">
+        <v>147.22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="20">
+        <v>944</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1001</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1271</v>
+      </c>
+      <c r="H22" s="33">
+        <v>1437</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1583</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1761</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1770</v>
+      </c>
+      <c r="L22" s="6">
+        <v>2054</v>
+      </c>
+      <c r="M22" s="6">
+        <v>2091</v>
+      </c>
+      <c r="N22" s="6">
+        <v>2215</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="35">
+        <v>907</v>
+      </c>
+      <c r="F23" s="4">
+        <v>944</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1273</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1600</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1884</v>
+      </c>
+      <c r="J23" s="4">
+        <v>2085</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2252</v>
+      </c>
+      <c r="L23" s="4">
+        <v>2252</v>
+      </c>
+      <c r="M23" s="4">
+        <v>2252</v>
+      </c>
+      <c r="N23" s="4">
+        <v>2367</v>
+      </c>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6">
+        <v>262.83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="20">
+        <v>785</v>
+      </c>
+      <c r="F24" s="6">
+        <v>955</v>
+      </c>
+      <c r="G24" s="33">
+        <v>1650</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1821</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1822</v>
+      </c>
+      <c r="J24" s="6">
+        <v>2139</v>
+      </c>
+      <c r="K24" s="6">
+        <v>2164</v>
+      </c>
+      <c r="L24" s="6">
+        <v>2186</v>
+      </c>
+      <c r="M24" s="6">
+        <v>2345</v>
+      </c>
+      <c r="N24" s="6">
+        <v>2471</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="6">
+        <v>97.33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="20">
+        <v>956</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1126</v>
+      </c>
+      <c r="G25" s="33">
+        <v>1197</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1246</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1309</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1480</v>
+      </c>
+      <c r="K25" s="6">
+        <v>1622</v>
+      </c>
+      <c r="L25" s="6">
+        <v>1654</v>
+      </c>
+      <c r="M25" s="6">
+        <v>1667</v>
+      </c>
+      <c r="N25" s="6">
+        <v>1998</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="21">
+        <v>785</v>
+      </c>
+      <c r="F26" s="4">
+        <v>931</v>
+      </c>
+      <c r="G26" s="32">
+        <v>1443</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1781</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1822</v>
+      </c>
+      <c r="J26" s="4">
+        <v>2139</v>
+      </c>
+      <c r="K26" s="4">
+        <v>2164</v>
+      </c>
+      <c r="L26" s="4">
+        <v>2294</v>
+      </c>
+      <c r="M26" s="4">
+        <v>2366</v>
+      </c>
+      <c r="N26" s="4">
+        <v>2511</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="34">
+        <v>333</v>
+      </c>
+      <c r="F27" s="6">
+        <v>803</v>
+      </c>
+      <c r="G27" s="6">
+        <v>954</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1085</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1085</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1241</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1369</v>
+      </c>
+      <c r="L27" s="6">
+        <v>1382</v>
+      </c>
+      <c r="M27" s="6">
+        <v>1409</v>
+      </c>
+      <c r="N27" s="6">
+        <v>1559</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="6"/>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="34">
+        <v>333</v>
+      </c>
+      <c r="F28" s="6">
+        <v>770</v>
+      </c>
+      <c r="G28" s="6">
+        <v>971</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1099</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1108</v>
+      </c>
+      <c r="J28" s="6">
+        <v>1206</v>
+      </c>
+      <c r="K28" s="6">
+        <v>1214</v>
+      </c>
+      <c r="L28" s="6">
+        <v>1254</v>
+      </c>
+      <c r="M28" s="6">
+        <v>1264</v>
+      </c>
+      <c r="N28" s="6">
+        <v>1362</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+    </row>
+    <row r="29" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="35">
+        <v>333</v>
+      </c>
+      <c r="F29" s="4">
+        <v>803</v>
+      </c>
+      <c r="G29" s="4">
+        <v>954</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1085</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1085</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1241</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1369</v>
+      </c>
+      <c r="L29" s="4">
+        <v>1382</v>
+      </c>
+      <c r="M29" s="4">
+        <v>1409</v>
+      </c>
+      <c r="N29" s="4">
+        <v>1559</v>
+      </c>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+    </row>
+    <row r="30" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="36">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="42">
+        <v>341</v>
+      </c>
+      <c r="F30" s="37">
+        <v>1113</v>
+      </c>
+      <c r="G30" s="37">
+        <v>1113</v>
+      </c>
+      <c r="H30" s="37">
+        <v>1113</v>
+      </c>
+      <c r="I30" s="37">
+        <v>1136</v>
+      </c>
+      <c r="J30" s="37">
+        <v>1273</v>
+      </c>
+      <c r="K30" s="37">
+        <v>1389</v>
+      </c>
+      <c r="L30" s="37">
+        <v>1561</v>
+      </c>
+      <c r="M30" s="37">
+        <v>1678</v>
+      </c>
+      <c r="N30" s="37">
+        <v>1739</v>
+      </c>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+    </row>
+    <row r="31" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="37"/>
+      <c r="C31" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="42">
+        <v>361</v>
+      </c>
+      <c r="F31" s="37">
+        <v>825</v>
+      </c>
+      <c r="G31" s="37">
+        <v>941</v>
+      </c>
+      <c r="H31" s="37">
+        <v>957</v>
+      </c>
+      <c r="I31" s="37">
+        <v>978</v>
+      </c>
+      <c r="J31" s="37">
+        <v>1126</v>
+      </c>
+      <c r="K31" s="37">
+        <v>1138</v>
+      </c>
+      <c r="L31" s="37">
+        <v>1277</v>
+      </c>
+      <c r="M31" s="37">
+        <v>1294</v>
+      </c>
+      <c r="N31" s="37">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="40"/>
+      <c r="C32" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="41">
+        <v>341</v>
+      </c>
+      <c r="F32" s="40">
+        <v>1113</v>
+      </c>
+      <c r="G32" s="40">
+        <v>1113</v>
+      </c>
+      <c r="H32" s="40">
+        <v>1113</v>
+      </c>
+      <c r="I32" s="40">
+        <v>1136</v>
+      </c>
+      <c r="J32" s="40">
+        <v>1273</v>
+      </c>
+      <c r="K32" s="40">
+        <v>1389</v>
+      </c>
+      <c r="L32" s="40">
+        <v>1561</v>
+      </c>
+      <c r="M32" s="40">
+        <v>1678</v>
+      </c>
+      <c r="N32" s="40">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A38" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+      <c r="A39" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A40" s="28"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A41" s="28"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A42" s="28"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="F42" s="43">
+        <v>2</v>
+      </c>
+      <c r="G42" s="43">
+        <v>3</v>
+      </c>
+      <c r="H42" s="43">
+        <v>4</v>
+      </c>
+      <c r="I42" s="43">
+        <v>5</v>
+      </c>
+      <c r="J42" s="43">
+        <v>6</v>
+      </c>
+      <c r="K42" s="43">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="L42" s="43">
+        <v>8</v>
+      </c>
+      <c r="M42" s="43">
+        <v>9</v>
+      </c>
+      <c r="N42" s="43">
+        <v>10</v>
+      </c>
+      <c r="O42" s="43">
+        <v>11</v>
+      </c>
+      <c r="P42" s="43">
+        <v>12</v>
+      </c>
+      <c r="Q42" s="43">
+        <v>13</v>
+      </c>
+      <c r="R42" s="43">
+        <v>14</v>
+      </c>
+      <c r="S42" s="43">
+        <v>15</v>
+      </c>
+      <c r="T42" s="43">
+        <v>16</v>
+      </c>
+      <c r="U42" s="43">
+        <v>17</v>
+      </c>
+      <c r="V42" s="43">
+        <v>18</v>
+      </c>
+      <c r="W42" s="43">
+        <v>19</v>
+      </c>
+      <c r="X42" s="43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43" s="28"/>
+      <c r="D43" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="43">
+        <v>3</v>
+      </c>
+      <c r="F43" s="43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="43">
+        <v>3</v>
+      </c>
+      <c r="H43" s="43">
+        <v>1</v>
+      </c>
+      <c r="I43" s="43">
+        <v>0</v>
+      </c>
+      <c r="J43" s="43">
+        <v>0</v>
+      </c>
+      <c r="K43" s="43">
+        <v>1</v>
+      </c>
+      <c r="L43" s="43">
+        <v>0</v>
+      </c>
+      <c r="M43" s="43">
+        <v>0</v>
+      </c>
+      <c r="N43" s="43">
+        <v>1</v>
+      </c>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="43"/>
+    </row>
+    <row r="44" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+      <c r="A44" s="28"/>
+      <c r="D44" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="43">
+        <v>3</v>
+      </c>
+      <c r="F44" s="43">
+        <v>3</v>
+      </c>
+      <c r="G44" s="43">
+        <v>1</v>
+      </c>
+      <c r="H44" s="43">
         <v>2</v>
       </c>
+      <c r="I44" s="43">
+        <v>1</v>
+      </c>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="43"/>
+      <c r="X44" s="43"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A45" s="28"/>
+      <c r="D45" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="43">
+        <v>5</v>
+      </c>
+      <c r="F45" s="43">
+        <v>0</v>
+      </c>
+      <c r="G45" s="43">
+        <v>3</v>
+      </c>
+      <c r="H45" s="43">
+        <v>1</v>
+      </c>
+      <c r="I45" s="43">
+        <v>0</v>
+      </c>
+      <c r="J45" s="43">
+        <v>1</v>
+      </c>
+      <c r="K45" s="43">
+        <v>0</v>
+      </c>
+      <c r="L45" s="43">
+        <v>0</v>
+      </c>
+      <c r="M45" s="43">
+        <v>0</v>
+      </c>
+      <c r="N45" s="43">
+        <v>0</v>
+      </c>
+      <c r="O45" s="43">
+        <v>0</v>
+      </c>
+      <c r="P45" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="43">
+        <v>0</v>
+      </c>
+      <c r="R45" s="43">
+        <v>0</v>
+      </c>
+      <c r="S45" s="43">
+        <v>0</v>
+      </c>
+      <c r="T45" s="43">
+        <v>0</v>
+      </c>
+      <c r="U45" s="43">
+        <v>0</v>
+      </c>
+      <c r="V45" s="43">
+        <v>0</v>
+      </c>
+      <c r="W45" s="43">
+        <v>0</v>
+      </c>
+      <c r="X45" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A46" s="28"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A48" s="28"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="28"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="64" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30">
+        <v>1</v>
+      </c>
+      <c r="F2" s="29">
+        <v>2</v>
+      </c>
+      <c r="G2" s="29">
+        <v>3</v>
+      </c>
+      <c r="H2" s="29">
+        <v>4</v>
+      </c>
+      <c r="I2" s="31">
+        <v>5</v>
+      </c>
+      <c r="J2" s="31">
+        <v>6</v>
+      </c>
+      <c r="K2" s="31">
+        <v>7</v>
+      </c>
+      <c r="L2" s="31">
+        <v>8</v>
+      </c>
+      <c r="M2" s="31">
+        <v>9</v>
+      </c>
+      <c r="N2" s="31">
+        <v>10</v>
+      </c>
+      <c r="O2" s="31">
+        <v>11</v>
+      </c>
+      <c r="P2" s="31">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="31">
+        <v>13</v>
+      </c>
+      <c r="R2" s="31">
+        <v>14</v>
+      </c>
+      <c r="S2" s="31">
+        <v>15</v>
+      </c>
+      <c r="T2" s="31">
+        <v>16</v>
+      </c>
+      <c r="U2" s="31">
+        <v>17</v>
+      </c>
+      <c r="V2" s="31">
+        <v>18</v>
+      </c>
+      <c r="W2" s="31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>409.19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="20">
+        <v>811</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1145</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1268</v>
+      </c>
+      <c r="H3" s="33">
+        <v>1981</v>
+      </c>
+      <c r="I3" s="6">
+        <v>2441</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2784</v>
+      </c>
+      <c r="K3" s="6">
+        <v>2883</v>
+      </c>
+      <c r="L3" s="6">
+        <v>3328</v>
+      </c>
+      <c r="M3" s="6">
+        <v>3338</v>
+      </c>
+      <c r="N3" s="6">
+        <v>4128</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>112.57</v>
+      </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="E4" s="20"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -3313,19 +8178,27 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="E5" s="21"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="32"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -3333,94 +8206,202 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6">
+        <v>190.47</v>
+      </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="E6" s="34">
+        <v>807</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1856</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2038</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2214</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3289</v>
+      </c>
+      <c r="J6" s="6">
+        <v>3412</v>
+      </c>
+      <c r="K6" s="6">
+        <v>3453</v>
+      </c>
+      <c r="L6" s="6">
+        <v>3973</v>
+      </c>
+      <c r="M6" s="6">
+        <v>4154</v>
+      </c>
+      <c r="N6" s="6">
+        <v>4155</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B9" s="6">
+        <v>620.28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="20">
+        <v>969</v>
+      </c>
+      <c r="F9" s="33">
+        <v>1373</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2768</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2780</v>
+      </c>
+      <c r="I9" s="6">
+        <v>2943</v>
+      </c>
+      <c r="J9" s="6">
+        <v>3145</v>
+      </c>
+      <c r="K9" s="6">
+        <v>3468</v>
+      </c>
+      <c r="L9" s="6">
+        <v>3642</v>
+      </c>
+      <c r="M9" s="6">
+        <v>3990</v>
+      </c>
+      <c r="N9" s="6">
+        <v>4165</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="6">
+        <v>119.84</v>
+      </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="21"/>
+        <v>11</v>
+      </c>
+      <c r="E10" s="20"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -3430,17 +8411,26 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="E11" s="35"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -3450,94 +8440,183 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="6">
+        <v>304.45</v>
+      </c>
       <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="E12" s="34">
+        <v>1316</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1449</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1958</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1997</v>
+      </c>
+      <c r="I12" s="6">
+        <v>2193</v>
+      </c>
+      <c r="J12" s="6">
+        <v>3044</v>
+      </c>
+      <c r="K12" s="6">
+        <v>3683</v>
+      </c>
+      <c r="L12" s="6">
+        <v>3685</v>
+      </c>
+      <c r="M12" s="6">
+        <v>4023</v>
+      </c>
+      <c r="N12" s="6">
+        <v>4366</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B13" s="6">
+        <v>126.01</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E14" s="21"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>7</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16" s="6"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6">
+        <v>193.12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="20">
+        <v>937</v>
+      </c>
+      <c r="F15" s="6">
+        <v>947</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1104</v>
+      </c>
+      <c r="H15" s="33">
+        <v>1260</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1406</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1437</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1796</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1906</v>
+      </c>
+      <c r="M15" s="6">
+        <v>2123</v>
+      </c>
+      <c r="N15" s="6">
+        <v>2467</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="6">
+        <v>58.65</v>
+      </c>
       <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="21"/>
+        <v>11</v>
+      </c>
+      <c r="E16" s="20"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -3547,109 +8626,1023 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="4"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="E17" s="21"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6">
+        <v>364.07</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="20">
+        <v>1038</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1050</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1351</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1437</v>
+      </c>
+      <c r="I18" s="33">
+        <v>1602</v>
+      </c>
+      <c r="J18" s="6">
+        <v>2023</v>
+      </c>
+      <c r="K18" s="6">
+        <v>2032</v>
+      </c>
+      <c r="L18" s="6">
+        <v>2724</v>
+      </c>
+      <c r="M18" s="6">
+        <v>3207</v>
+      </c>
+      <c r="N18" s="6">
+        <v>3377</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B19" s="6">
+        <v>126.88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6">
+        <v>329.72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="20">
+        <v>778</v>
+      </c>
+      <c r="F21" s="33">
+        <v>1013</v>
+      </c>
+      <c r="G21" s="6">
+        <v>2085</v>
+      </c>
+      <c r="H21" s="37">
+        <v>2175</v>
+      </c>
+      <c r="I21" s="37">
+        <v>2211</v>
+      </c>
+      <c r="J21" s="37">
+        <v>2716</v>
+      </c>
+      <c r="K21" s="37">
+        <v>2903</v>
+      </c>
+      <c r="L21" s="37">
+        <v>2999</v>
+      </c>
+      <c r="M21" s="37">
+        <v>3048</v>
+      </c>
+      <c r="N21" s="37">
+        <v>3399</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B22" s="6">
+        <v>147.22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6">
+        <v>262.83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="20">
+        <v>785</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1052</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1651</v>
+      </c>
+      <c r="H24" s="33">
+        <v>1664</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1784</v>
+      </c>
+      <c r="J24" s="6">
+        <v>2120</v>
+      </c>
+      <c r="K24" s="6">
+        <v>2164</v>
+      </c>
+      <c r="L24" s="6">
+        <v>2340</v>
+      </c>
+      <c r="M24" s="6">
+        <v>2636</v>
+      </c>
+      <c r="N24" s="6">
+        <v>2649</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="6">
+        <v>97.33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="6"/>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+    </row>
+    <row r="29" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="35"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+    </row>
+    <row r="30" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="48">
+        <v>29</v>
+      </c>
+      <c r="B30" s="49"/>
+      <c r="C30" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="50"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+    </row>
+    <row r="31" spans="1:24" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="34"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+    </row>
+    <row r="32" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="4"/>
+      <c r="C32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="35"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+    </row>
+    <row r="33" spans="1:24" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="47">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6">
+        <v>313.08999999999997</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="20">
+        <v>767</v>
+      </c>
+      <c r="F33" s="6">
+        <v>983</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1080</v>
+      </c>
+      <c r="H33" s="6">
+        <v>1125</v>
+      </c>
+      <c r="I33" s="33">
+        <v>1806</v>
+      </c>
+      <c r="J33" s="6">
+        <v>2084</v>
+      </c>
+      <c r="K33" s="6">
+        <v>2121</v>
+      </c>
+      <c r="L33" s="6">
+        <v>2221</v>
+      </c>
+      <c r="M33" s="6">
+        <v>3517</v>
+      </c>
+      <c r="N33" s="6">
+        <v>4158</v>
+      </c>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+    </row>
+    <row r="34" spans="1:24" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+    </row>
+    <row r="35" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+      <c r="C35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+    </row>
+    <row r="36" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="36">
+        <v>37</v>
+      </c>
+      <c r="B36" s="6">
+        <v>400.77</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="42">
+        <v>1158</v>
+      </c>
+      <c r="F36" s="37">
+        <v>1173</v>
+      </c>
+      <c r="G36" s="37">
+        <v>2765</v>
+      </c>
+      <c r="H36" s="37">
+        <v>3035</v>
+      </c>
+      <c r="I36" s="37">
+        <v>3549</v>
+      </c>
+      <c r="J36" s="37">
+        <v>3817</v>
+      </c>
+      <c r="K36" s="37">
+        <v>3828</v>
+      </c>
+      <c r="L36" s="37">
+        <v>4021</v>
+      </c>
+      <c r="M36" s="37">
+        <v>4021</v>
+      </c>
+      <c r="N36" s="37">
+        <v>4295</v>
+      </c>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
+    </row>
+    <row r="37" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="37"/>
+      <c r="C37" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="46"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+    </row>
+    <row r="38" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="40"/>
+      <c r="C38" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="41">
+        <v>1158</v>
+      </c>
+      <c r="F38" s="40">
+        <v>1160</v>
+      </c>
+      <c r="G38" s="40">
+        <v>1304</v>
+      </c>
+      <c r="H38" s="40">
+        <v>1363</v>
+      </c>
+      <c r="I38" s="40">
+        <v>1526</v>
+      </c>
+      <c r="J38" s="40">
+        <v>1781</v>
+      </c>
+      <c r="K38" s="40">
+        <v>1973</v>
+      </c>
+      <c r="L38" s="40">
+        <v>1974</v>
+      </c>
+      <c r="M38" s="40">
+        <v>2405</v>
+      </c>
+      <c r="N38" s="40">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A44" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+      <c r="A45" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A46" s="28"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A48" s="28"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43">
+        <v>1</v>
+      </c>
+      <c r="F48" s="43">
+        <v>2</v>
+      </c>
+      <c r="G48" s="43">
+        <v>3</v>
+      </c>
+      <c r="H48" s="43">
+        <v>4</v>
+      </c>
+      <c r="I48" s="43">
+        <v>5</v>
+      </c>
+      <c r="J48" s="43">
+        <v>6</v>
+      </c>
+      <c r="K48" s="43">
+        <v>7</v>
+      </c>
+      <c r="L48" s="43">
+        <v>8</v>
+      </c>
+      <c r="M48" s="43">
         <v>9</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>9</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="N48" s="43">
         <v>10</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>10</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="O48" s="43">
+        <v>11</v>
+      </c>
+      <c r="P48" s="43">
+        <v>12</v>
+      </c>
+      <c r="Q48" s="43">
+        <v>13</v>
+      </c>
+      <c r="R48" s="43">
+        <v>14</v>
+      </c>
+      <c r="S48" s="43">
+        <v>15</v>
+      </c>
+      <c r="T48" s="43">
+        <v>16</v>
+      </c>
+      <c r="U48" s="43">
+        <v>17</v>
+      </c>
+      <c r="V48" s="43">
+        <v>18</v>
+      </c>
+      <c r="W48" s="43">
+        <v>19</v>
+      </c>
+      <c r="X48" s="43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+      <c r="D49" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="43">
+        <v>3</v>
+      </c>
+      <c r="F49" s="43">
+        <v>1</v>
+      </c>
+      <c r="G49" s="43">
+        <v>3</v>
+      </c>
+      <c r="H49" s="43">
+        <v>1</v>
+      </c>
+      <c r="I49" s="43">
+        <v>0</v>
+      </c>
+      <c r="J49" s="43">
+        <v>0</v>
+      </c>
+      <c r="K49" s="43">
+        <v>1</v>
+      </c>
+      <c r="L49" s="43">
+        <v>0</v>
+      </c>
+      <c r="M49" s="43">
+        <v>0</v>
+      </c>
+      <c r="N49" s="43">
+        <v>0</v>
+      </c>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="43"/>
+    </row>
+    <row r="50" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+      <c r="A50" s="28"/>
+      <c r="D50" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="43">
+        <v>3</v>
+      </c>
+      <c r="F50" s="43">
+        <v>3</v>
+      </c>
+      <c r="G50" s="43">
+        <v>1</v>
+      </c>
+      <c r="H50" s="43">
+        <v>2</v>
+      </c>
+      <c r="I50" s="43">
+        <v>1</v>
+      </c>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="43"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="D51" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="43">
+        <v>5</v>
+      </c>
+      <c r="F51" s="43">
+        <v>0</v>
+      </c>
+      <c r="G51" s="43">
+        <v>3</v>
+      </c>
+      <c r="H51" s="43">
+        <v>1</v>
+      </c>
+      <c r="I51" s="43">
+        <v>0</v>
+      </c>
+      <c r="J51" s="43">
+        <v>1</v>
+      </c>
+      <c r="K51" s="43">
+        <v>0</v>
+      </c>
+      <c r="L51" s="43">
+        <v>0</v>
+      </c>
+      <c r="M51" s="43">
+        <v>0</v>
+      </c>
+      <c r="N51" s="43">
+        <v>0</v>
+      </c>
+      <c r="O51" s="43">
+        <v>0</v>
+      </c>
+      <c r="P51" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="43">
+        <v>0</v>
+      </c>
+      <c r="R51" s="43">
+        <v>0</v>
+      </c>
+      <c r="S51" s="43">
+        <v>0</v>
+      </c>
+      <c r="T51" s="43">
+        <v>0</v>
+      </c>
+      <c r="U51" s="43">
+        <v>0</v>
+      </c>
+      <c r="V51" s="43">
+        <v>0</v>
+      </c>
+      <c r="W51" s="43">
+        <v>0</v>
+      </c>
+      <c r="X51" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A52" s="28"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A53" s="28"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A54" s="28"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A55" s="28"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A56" s="28"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A57" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Experiment.xlsx
+++ b/Experiment.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="47">
   <si>
     <t>Taxi Arrival time</t>
   </si>
@@ -94,6 +94,81 @@
   <si>
     <t>on the same road</t>
   </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>8th</t>
+  </si>
+  <si>
+    <t>9th</t>
+  </si>
+  <si>
+    <t>10th</t>
+  </si>
+  <si>
+    <t>11th</t>
+  </si>
+  <si>
+    <t>Distribution of the arrival orders of the called taxi with updating navigation every 30 seconds using average speed</t>
+  </si>
+  <si>
+    <t>Distribution of the arrival orders of the called taxi without updating the navigation</t>
+  </si>
+  <si>
+    <t>Arrival order</t>
+  </si>
+  <si>
+    <t>12th</t>
+  </si>
+  <si>
+    <t>13th</t>
+  </si>
+  <si>
+    <t>14th</t>
+  </si>
+  <si>
+    <t>15th</t>
+  </si>
+  <si>
+    <t>16th</t>
+  </si>
+  <si>
+    <t>17th</t>
+  </si>
+  <si>
+    <t>18th</t>
+  </si>
+  <si>
+    <t>19th</t>
+  </si>
+  <si>
+    <t>20th</t>
+  </si>
+  <si>
+    <t>Distribution of the arrival orders of the called taxi with updating navigation every 30 seconds using instant and average speed</t>
+  </si>
+  <si>
+    <t>Update routing every 30 seconds using instant and average speed</t>
+  </si>
 </sst>
 </file>
 
@@ -139,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,8 +233,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -244,15 +331,30 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -280,8 +382,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -349,16 +455,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -372,6 +504,8 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -385,6 +519,8 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,7 +548,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -675,11 +810,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2127088704"/>
-        <c:axId val="-2127068960"/>
+        <c:axId val="-2099662096"/>
+        <c:axId val="-2099667440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127088704"/>
+        <c:axId val="-2099662096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -711,7 +846,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -778,7 +912,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127068960"/>
+        <c:crossAx val="-2099667440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -786,7 +920,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127068960"/>
+        <c:axId val="-2099667440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +971,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127088704"/>
+        <c:crossAx val="-2099662096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -853,7 +987,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1424,11 +1557,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="2140465632"/>
-        <c:axId val="2140218768"/>
+        <c:axId val="2111698192"/>
+        <c:axId val="2111704400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2140465632"/>
+        <c:axId val="2111698192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1532,7 +1665,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140218768"/>
+        <c:crossAx val="2111704400"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1540,7 +1673,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140218768"/>
+        <c:axId val="2111704400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1653,7 +1786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140465632"/>
+        <c:crossAx val="2111698192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -1751,35 +1884,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Arrival</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Order for the Called Taxi</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1813,455 +1917,424 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Only update the taxis'' routing'!$D$49</c:f>
+              <c:f>'Only update the taxis'' routing'!$D$103</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Update routing every 30 seconds using average speed</c:v>
+                  <c:v>Distribution of the arrival orders of the called taxi with updating navigation every 30 seconds using average speed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
               <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Only update the taxis'' routing'!$E$48:$X$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Only update the taxis'' routing'!$E$49:$X$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Only update the taxis'' routing'!$D$50</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Update routing every 30 seconds using current speed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Only update the taxis'' routing'!$E$48:$X$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Only update the taxis'' routing'!$E$50:$X$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Only update the taxis'' routing'!$D$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No update</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Only update the taxis'' routing'!$E$48:$X$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Only update the taxis'' routing'!$E$51:$X$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="-2129119952"/>
-        <c:axId val="-2129113744"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2129119952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2269,126 +2342,730 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Arrival</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Order</a:t>
-                </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Only update the taxis'' routing'!$E$102:$X$102</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1st</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2nd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3rd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4th</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5th</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6th</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7th</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8th</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9th</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10th</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11th</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12th</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13th</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14th</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15th</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16th</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17th</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18th</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19th</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Only update the taxis'' routing'!$E$103:$X$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2129113744"/>
-        <c:crossesAt val="0.0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2129113744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <c:strRef>
+              <c:f>'Only update the taxis'' routing'!$D$113</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distribution of the arrival orders of the called taxi without updating the navigation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2396,85 +3073,918 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Times</a:t>
-                </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Only update the taxis'' routing'!$E$112:$X$112</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1st</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2nd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3rd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4th</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5th</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6th</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7th</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8th</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9th</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10th</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11th</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12th</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13th</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14th</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15th</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16th</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17th</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18th</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19th</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Only update the taxis'' routing'!$E$113:$X$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Only update the taxis'' routing'!$D$108</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distribution of the arrival orders of the called taxi with updating navigation every 30 seconds using instant and average speed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2129119952"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1.0"/>
-        <c:minorUnit val="1.0"/>
-      </c:valAx>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Only update the taxis'' routing'!$E$107:$X$107</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1st</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2nd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3rd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4th</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5th</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6th</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7th</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8th</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9th</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10th</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11th</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12th</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13th</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14th</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15th</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16th</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17th</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18th</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19th</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Only update the taxis'' routing'!$E$108:$X$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2633,6 +4143,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3679,7 +5269,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3736,7 +5326,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3787,6 +5377,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3797,12 +5394,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3840,7 +5444,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3883,22 +5487,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4003,8 +5608,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4136,19 +5741,1058 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4257,23 +6901,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>14254</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>2073</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>21167</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>11289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>634998</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>38878</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>183445</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>14111</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4282,6 +6924,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7053</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>194733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>423332</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>183444</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>529167</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>39510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>169332</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>84665</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4582,11 +7284,11 @@
       <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
       <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -5211,11 +7913,11 @@
       <c r="E1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -6152,8 +8854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:N32"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6180,11 +8882,11 @@
       <c r="E1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29"/>
@@ -8009,10 +10711,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X57"/>
+  <dimension ref="A1:Y118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="B103" zoomScale="85" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8039,11 +10741,11 @@
       <c r="E1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29"/>
@@ -8106,6 +10808,9 @@
       </c>
       <c r="W2" s="31">
         <v>19</v>
+      </c>
+      <c r="X2" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -8164,20 +10869,41 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>112.57</v>
+        <v>259.23</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="E4" s="20">
+        <v>809</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1292</v>
+      </c>
+      <c r="G4" s="65">
+        <v>1644</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1988</v>
+      </c>
+      <c r="I4" s="6">
+        <v>2314</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2324</v>
+      </c>
+      <c r="K4" s="6">
+        <v>2778</v>
+      </c>
+      <c r="L4" s="6">
+        <v>2949</v>
+      </c>
+      <c r="M4" s="6">
+        <v>2988</v>
+      </c>
+      <c r="N4" s="6">
+        <v>3319</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -8190,22 +10916,39 @@
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="E5" s="21">
+        <v>643</v>
+      </c>
+      <c r="F5" s="4">
+        <v>995</v>
+      </c>
+      <c r="G5" s="58">
+        <v>1316</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1502</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1770</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1809</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1874</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1988</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2104</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2147</v>
+      </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -8276,7 +11019,9 @@
         <v>11</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="20"/>
+      <c r="E7" s="66">
+        <v>807</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -8298,9 +11043,6 @@
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -8308,16 +11050,36 @@
         <v>12</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="E8" s="58">
+        <v>807</v>
+      </c>
+      <c r="F8" s="4">
+        <v>961</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1331</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1643</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1643</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2035</v>
+      </c>
+      <c r="K8" s="4">
+        <v>3024</v>
+      </c>
+      <c r="L8" s="4">
+        <v>3080</v>
+      </c>
+      <c r="M8" s="4">
+        <v>3099</v>
+      </c>
+      <c r="N8" s="4">
+        <v>3100</v>
+      </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -8401,16 +11163,36 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="E10" s="20">
+        <v>860</v>
+      </c>
+      <c r="F10" s="67">
+        <v>1363</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1717</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1893</v>
+      </c>
+      <c r="I10" s="6">
+        <v>2099</v>
+      </c>
+      <c r="J10" s="6">
+        <v>2414</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2499</v>
+      </c>
+      <c r="L10" s="6">
+        <v>2553</v>
+      </c>
+      <c r="M10" s="6">
+        <v>2768</v>
+      </c>
+      <c r="N10" s="6">
+        <v>3820</v>
+      </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -8423,23 +11205,40 @@
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="E11" s="59">
+        <v>844</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1017</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1150</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1697</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1844</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2241</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2255</v>
+      </c>
+      <c r="L11" s="4">
+        <v>2596</v>
+      </c>
+      <c r="M11" s="4">
+        <v>2609</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2728</v>
+      </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -8509,16 +11308,36 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="E13" s="20">
+        <v>1148</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1486</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1654</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1826</v>
+      </c>
+      <c r="I13" s="67">
+        <v>1994</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2099</v>
+      </c>
+      <c r="K13" s="6">
+        <v>2799</v>
+      </c>
+      <c r="L13" s="6">
+        <v>2809</v>
+      </c>
+      <c r="M13" s="6">
+        <v>2971</v>
+      </c>
+      <c r="N13" s="6">
+        <v>3043</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -8531,22 +11350,39 @@
       <c r="X13" s="2"/>
     </row>
     <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="E14" s="21">
+        <v>1319</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1353</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1660</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1787</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1826</v>
+      </c>
+      <c r="J14" s="58">
+        <v>1835</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1931</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1994</v>
+      </c>
+      <c r="M14" s="4">
+        <v>2004</v>
+      </c>
+      <c r="N14" s="4">
+        <v>2166</v>
+      </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -8616,16 +11452,36 @@
       <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="E16" s="66">
+        <v>777</v>
+      </c>
+      <c r="F16" s="6">
+        <v>937</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1084</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1214</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1425</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1625</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1797</v>
+      </c>
+      <c r="L16" s="6">
+        <v>1951</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1951</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1952</v>
+      </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -8638,22 +11494,39 @@
       <c r="X16" s="2"/>
     </row>
     <row r="17" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="E17" s="21">
+        <v>746</v>
+      </c>
+      <c r="F17" s="4">
+        <v>866</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1089</v>
+      </c>
+      <c r="H17" s="58">
+        <v>1091</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1091</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1091</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1432</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1608</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1645</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1776</v>
+      </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -8723,16 +11596,36 @@
       <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="E19" s="20">
+        <v>1035</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1070</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1201</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1201</v>
+      </c>
+      <c r="I19" s="67">
+        <v>1403</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1770</v>
+      </c>
+      <c r="K19" s="6">
+        <v>2023</v>
+      </c>
+      <c r="L19" s="6">
+        <v>2355</v>
+      </c>
+      <c r="M19" s="6">
+        <v>2897</v>
+      </c>
+      <c r="N19" s="6">
+        <v>2907</v>
+      </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="2"/>
@@ -8745,22 +11638,39 @@
       <c r="X19" s="2"/>
     </row>
     <row r="20" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="E20" s="21">
+        <v>1071</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1142</v>
+      </c>
+      <c r="G20" s="58">
+        <v>1373</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1373</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1404</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1530</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1368</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1732</v>
+      </c>
+      <c r="M20" s="4">
+        <v>2061</v>
+      </c>
+      <c r="N20" s="4">
+        <v>2187</v>
+      </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -8830,16 +11740,36 @@
       <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
+      <c r="E22" s="20">
+        <v>907</v>
+      </c>
+      <c r="F22" s="67">
+        <v>1271</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1379</v>
+      </c>
+      <c r="H22" s="37">
+        <v>1757</v>
+      </c>
+      <c r="I22" s="37">
+        <v>1768</v>
+      </c>
+      <c r="J22" s="37">
+        <v>2377</v>
+      </c>
+      <c r="K22" s="37">
+        <v>3682</v>
+      </c>
+      <c r="L22" s="37">
+        <v>3691</v>
+      </c>
+      <c r="M22" s="37">
+        <v>3889</v>
+      </c>
+      <c r="N22" s="37">
+        <v>4052</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -8852,22 +11782,39 @@
       <c r="X22" s="2"/>
     </row>
     <row r="23" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
+      <c r="E23" s="59">
+        <v>907</v>
+      </c>
+      <c r="F23" s="4">
+        <v>944</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1273</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1600</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1884</v>
+      </c>
+      <c r="J23" s="4">
+        <v>2085</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2252</v>
+      </c>
+      <c r="L23" s="4">
+        <v>2252</v>
+      </c>
+      <c r="M23" s="4">
+        <v>2252</v>
+      </c>
+      <c r="N23" s="4">
+        <v>2367</v>
+      </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -8937,16 +11884,36 @@
       <c r="C25" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
+      <c r="E25" s="20">
+        <v>616</v>
+      </c>
+      <c r="F25" s="67">
+        <v>1257</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1303</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1482</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1650</v>
+      </c>
+      <c r="J25" s="6">
+        <v>2166</v>
+      </c>
+      <c r="K25" s="6">
+        <v>2688</v>
+      </c>
+      <c r="L25" s="6">
+        <v>2704</v>
+      </c>
+      <c r="M25" s="6">
+        <v>2826</v>
+      </c>
+      <c r="N25" s="6">
+        <v>2885</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -8959,23 +11926,40 @@
       <c r="X25" s="2"/>
     </row>
     <row r="26" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="B26" s="4"/>
       <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="E26" s="21">
+        <v>785</v>
+      </c>
+      <c r="F26" s="4">
+        <v>931</v>
+      </c>
+      <c r="G26" s="58">
+        <v>1443</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1781</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1822</v>
+      </c>
+      <c r="J26" s="4">
+        <v>2139</v>
+      </c>
+      <c r="K26" s="4">
+        <v>2164</v>
+      </c>
+      <c r="L26" s="4">
+        <v>2294</v>
+      </c>
+      <c r="M26" s="4">
+        <v>2366</v>
+      </c>
+      <c r="N26" s="4">
+        <v>2511</v>
+      </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -8995,16 +11979,36 @@
       <c r="C27" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
+      <c r="E27" s="34">
+        <v>333</v>
+      </c>
+      <c r="F27" s="6">
+        <v>803</v>
+      </c>
+      <c r="G27" s="6">
+        <v>954</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1085</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1085</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1241</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1369</v>
+      </c>
+      <c r="L27" s="6">
+        <v>1382</v>
+      </c>
+      <c r="M27" s="6">
+        <v>1409</v>
+      </c>
+      <c r="N27" s="6">
+        <v>1559</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -9021,16 +12025,36 @@
       <c r="C28" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
+      <c r="E28" s="66">
+        <v>333</v>
+      </c>
+      <c r="F28" s="6">
+        <v>800</v>
+      </c>
+      <c r="G28" s="6">
+        <v>810</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1254</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1397</v>
+      </c>
+      <c r="J28" s="6">
+        <v>1397</v>
+      </c>
+      <c r="K28" s="6">
+        <v>1525</v>
+      </c>
+      <c r="L28" s="6">
+        <v>1708</v>
+      </c>
+      <c r="M28" s="6">
+        <v>1709</v>
+      </c>
+      <c r="N28" s="6">
+        <v>1719</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -9043,23 +12067,40 @@
       <c r="X28" s="2"/>
     </row>
     <row r="29" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="B29" s="4"/>
       <c r="C29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
+      <c r="E29" s="59">
+        <v>333</v>
+      </c>
+      <c r="F29" s="4">
+        <v>803</v>
+      </c>
+      <c r="G29" s="4">
+        <v>954</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1085</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1085</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1241</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1369</v>
+      </c>
+      <c r="L29" s="4">
+        <v>1382</v>
+      </c>
+      <c r="M29" s="4">
+        <v>1409</v>
+      </c>
+      <c r="N29" s="4">
+        <v>1559</v>
+      </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
@@ -9071,50 +12112,90 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
     </row>
-    <row r="30" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="48">
+    <row r="30" spans="1:24" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="47">
         <v>29</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="48" t="s">
+      <c r="B30" s="48"/>
+      <c r="C30" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="49"/>
-      <c r="X30" s="49"/>
-    </row>
-    <row r="31" spans="1:24" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="42">
+        <v>341</v>
+      </c>
+      <c r="F30" s="37">
+        <v>1113</v>
+      </c>
+      <c r="G30" s="37">
+        <v>1113</v>
+      </c>
+      <c r="H30" s="37">
+        <v>1113</v>
+      </c>
+      <c r="I30" s="37">
+        <v>1136</v>
+      </c>
+      <c r="J30" s="37">
+        <v>1273</v>
+      </c>
+      <c r="K30" s="37">
+        <v>1389</v>
+      </c>
+      <c r="L30" s="37">
+        <v>1561</v>
+      </c>
+      <c r="M30" s="37">
+        <v>1678</v>
+      </c>
+      <c r="N30" s="37">
+        <v>1739</v>
+      </c>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+    </row>
+    <row r="31" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="E31" s="68">
+        <v>341</v>
+      </c>
+      <c r="F31" s="37">
+        <v>975</v>
+      </c>
+      <c r="G31" s="37">
+        <v>1231</v>
+      </c>
+      <c r="H31" s="37">
+        <v>1277</v>
+      </c>
+      <c r="I31" s="37">
+        <v>1287</v>
+      </c>
+      <c r="J31" s="37">
+        <v>1575</v>
+      </c>
+      <c r="K31" s="37">
+        <v>1575</v>
+      </c>
+      <c r="L31" s="37">
+        <v>2274</v>
+      </c>
+      <c r="M31" s="37">
+        <v>2287</v>
+      </c>
+      <c r="N31" s="37">
+        <v>2475</v>
+      </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
@@ -9131,16 +12212,36 @@
       <c r="C32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
+      <c r="E32" s="60">
+        <v>341</v>
+      </c>
+      <c r="F32" s="40">
+        <v>1113</v>
+      </c>
+      <c r="G32" s="40">
+        <v>1113</v>
+      </c>
+      <c r="H32" s="40">
+        <v>1113</v>
+      </c>
+      <c r="I32" s="40">
+        <v>1136</v>
+      </c>
+      <c r="J32" s="40">
+        <v>1273</v>
+      </c>
+      <c r="K32" s="40">
+        <v>1389</v>
+      </c>
+      <c r="L32" s="40">
+        <v>1561</v>
+      </c>
+      <c r="M32" s="40">
+        <v>1678</v>
+      </c>
+      <c r="N32" s="40">
+        <v>1739</v>
+      </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -9152,8 +12253,8 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
     </row>
-    <row r="33" spans="1:24" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="47">
+    <row r="33" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="46">
         <v>31</v>
       </c>
       <c r="B33" s="6">
@@ -9203,21 +12304,41 @@
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
     </row>
-    <row r="34" spans="1:24" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
+      <c r="E34" s="66">
+        <v>767</v>
+      </c>
+      <c r="F34" s="6">
+        <v>842</v>
+      </c>
+      <c r="G34" s="6">
+        <v>994</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1131</v>
+      </c>
+      <c r="I34" s="37">
+        <v>1449</v>
+      </c>
+      <c r="J34" s="37">
+        <v>1646</v>
+      </c>
+      <c r="K34" s="37">
+        <v>2282</v>
+      </c>
+      <c r="L34" s="37">
+        <v>2440</v>
+      </c>
+      <c r="M34" s="37">
+        <v>2547</v>
+      </c>
+      <c r="N34" s="37">
+        <v>2612</v>
+      </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
@@ -9234,16 +12355,36 @@
       <c r="C35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
+      <c r="E35" s="21">
+        <v>780</v>
+      </c>
+      <c r="F35" s="4">
+        <v>943</v>
+      </c>
+      <c r="G35" s="4">
+        <v>30</v>
+      </c>
+      <c r="H35" s="58">
+        <v>1169</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1473</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1473</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1803</v>
+      </c>
+      <c r="L35" s="4">
+        <v>1964</v>
+      </c>
+      <c r="M35" s="4">
+        <v>2086</v>
+      </c>
+      <c r="N35" s="4">
+        <v>2123</v>
+      </c>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
@@ -9311,26 +12452,43 @@
       <c r="C37" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
+      <c r="E37" s="45">
+        <v>1144</v>
+      </c>
+      <c r="F37" s="37">
+        <v>1146</v>
+      </c>
+      <c r="G37" s="37">
+        <v>1465</v>
+      </c>
+      <c r="H37" s="37">
+        <v>1502</v>
+      </c>
+      <c r="I37" s="37">
+        <v>1663</v>
+      </c>
+      <c r="J37" s="65">
+        <v>1797</v>
+      </c>
+      <c r="K37" s="37">
+        <v>3348</v>
+      </c>
+      <c r="L37" s="37">
+        <v>3355</v>
+      </c>
+      <c r="M37" s="37">
+        <v>3569</v>
+      </c>
+      <c r="N37" s="37">
+        <v>3676</v>
+      </c>
     </row>
     <row r="38" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="39" t="s">
-        <v>16</v>
-      </c>
       <c r="B38" s="40"/>
       <c r="C38" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="60">
         <v>1158</v>
       </c>
       <c r="F38" s="40">
@@ -9361,281 +12519,2521 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="39" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="50">
+        <v>41</v>
+      </c>
+      <c r="B39" s="37">
+        <v>204.22</v>
+      </c>
+      <c r="C39" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B40" t="s">
+      <c r="E39" s="45">
+        <v>1133</v>
+      </c>
+      <c r="F39" s="37">
+        <v>1423</v>
+      </c>
+      <c r="G39" s="37">
+        <v>2133</v>
+      </c>
+      <c r="H39" s="37">
+        <v>2144</v>
+      </c>
+      <c r="I39" s="37">
+        <v>2262</v>
+      </c>
+      <c r="J39" s="37">
+        <v>2799</v>
+      </c>
+      <c r="K39" s="37">
+        <v>2932</v>
+      </c>
+      <c r="L39" s="37">
+        <v>3654</v>
+      </c>
+      <c r="M39" s="37">
+        <v>3802</v>
+      </c>
+      <c r="N39" s="37">
+        <v>3808</v>
+      </c>
+      <c r="O39" s="37">
+        <v>3978</v>
+      </c>
+      <c r="P39" s="37">
+        <v>4469</v>
+      </c>
+      <c r="Q39" s="37">
+        <v>4480</v>
+      </c>
+      <c r="R39" s="37">
+        <v>4596</v>
+      </c>
+      <c r="S39" s="37">
+        <v>5193</v>
+      </c>
+      <c r="T39" s="37">
+        <v>6303</v>
+      </c>
+      <c r="U39" s="37">
+        <v>6315</v>
+      </c>
+      <c r="V39" s="37">
+        <v>6503</v>
+      </c>
+      <c r="W39" s="51">
+        <v>6810</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="37"/>
+      <c r="C40" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="45">
+        <v>1298</v>
+      </c>
+      <c r="F40" s="37">
+        <v>1466</v>
+      </c>
+      <c r="G40" s="37">
+        <v>2138</v>
+      </c>
+      <c r="H40" s="65">
+        <v>2469</v>
+      </c>
+      <c r="I40" s="37">
+        <v>2926</v>
+      </c>
+      <c r="J40" s="37">
+        <v>2973</v>
+      </c>
+      <c r="K40" s="37">
+        <v>3137</v>
+      </c>
+      <c r="L40" s="37">
+        <v>3265</v>
+      </c>
+      <c r="M40" s="37">
+        <v>3282</v>
+      </c>
+      <c r="N40" s="37">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="40"/>
+      <c r="C41" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="52">
+        <v>1094</v>
+      </c>
+      <c r="F41" s="40">
+        <v>1131</v>
+      </c>
+      <c r="G41" s="40">
+        <v>1802</v>
+      </c>
+      <c r="H41" s="40">
+        <v>1968</v>
+      </c>
+      <c r="I41" s="61">
+        <v>2096</v>
+      </c>
+      <c r="J41" s="40">
+        <v>2298</v>
+      </c>
+      <c r="K41" s="40">
+        <v>2335</v>
+      </c>
+      <c r="L41" s="40">
+        <v>2346</v>
+      </c>
+      <c r="M41" s="40">
+        <v>2484</v>
+      </c>
+      <c r="N41" s="40">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="50">
+        <v>43</v>
+      </c>
+      <c r="B42" s="37">
+        <v>64.89</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="45">
+        <v>1105</v>
+      </c>
+      <c r="F42" s="37">
+        <v>1454</v>
+      </c>
+      <c r="G42" s="51">
+        <v>1939</v>
+      </c>
+      <c r="H42" s="37">
+        <v>2017</v>
+      </c>
+      <c r="I42" s="37">
+        <v>2025</v>
+      </c>
+      <c r="J42" s="37">
+        <v>2231</v>
+      </c>
+      <c r="K42" s="37">
+        <v>2945</v>
+      </c>
+      <c r="L42" s="37">
+        <v>2953</v>
+      </c>
+      <c r="M42" s="37">
+        <v>2960</v>
+      </c>
+      <c r="N42" s="37">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="37"/>
+      <c r="C43" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="45">
+        <v>935</v>
+      </c>
+      <c r="F43" s="37">
+        <v>1104</v>
+      </c>
+      <c r="G43" s="37">
+        <v>1397</v>
+      </c>
+      <c r="H43" s="37">
+        <v>1560</v>
+      </c>
+      <c r="I43" s="37">
+        <v>2105</v>
+      </c>
+      <c r="J43" s="65">
+        <v>2238</v>
+      </c>
+      <c r="K43" s="37">
+        <v>3077</v>
+      </c>
+      <c r="L43" s="37">
+        <v>3078</v>
+      </c>
+      <c r="M43" s="37">
+        <v>3456</v>
+      </c>
+      <c r="N43" s="37">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="40"/>
+      <c r="C44" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="52">
+        <v>1086</v>
+      </c>
+      <c r="F44" s="61">
+        <v>1150</v>
+      </c>
+      <c r="G44" s="40">
+        <v>1234</v>
+      </c>
+      <c r="H44" s="40">
+        <v>1244</v>
+      </c>
+      <c r="I44" s="40">
+        <v>1895</v>
+      </c>
+      <c r="J44" s="40">
+        <v>2063</v>
+      </c>
+      <c r="K44" s="40">
+        <v>2121</v>
+      </c>
+      <c r="L44" s="40">
+        <v>2308</v>
+      </c>
+      <c r="M44" s="40">
+        <v>2569</v>
+      </c>
+      <c r="N44" s="40">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="50">
+        <v>47</v>
+      </c>
+      <c r="B45" s="37">
+        <v>311.41000000000003</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="42">
+        <v>934</v>
+      </c>
+      <c r="F45" s="37">
+        <v>1866</v>
+      </c>
+      <c r="G45" s="37">
+        <v>1867</v>
+      </c>
+      <c r="H45" s="37">
+        <v>2793</v>
+      </c>
+      <c r="I45" s="37">
+        <v>2891</v>
+      </c>
+      <c r="J45" s="37">
+        <v>2954</v>
+      </c>
+      <c r="K45" s="37">
+        <v>3185</v>
+      </c>
+      <c r="L45" s="37">
+        <v>3412</v>
+      </c>
+      <c r="M45" s="37">
+        <v>3545</v>
+      </c>
+      <c r="N45" s="37">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="37"/>
+      <c r="C46" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="68">
+        <v>1209</v>
+      </c>
+      <c r="F46" s="37">
+        <v>1276</v>
+      </c>
+      <c r="G46" s="37">
+        <v>1709</v>
+      </c>
+      <c r="H46" s="37">
+        <v>1865</v>
+      </c>
+      <c r="I46" s="37">
+        <v>2136</v>
+      </c>
+      <c r="J46" s="37">
+        <v>2289</v>
+      </c>
+      <c r="K46" s="37">
+        <v>2448</v>
+      </c>
+      <c r="L46" s="37">
+        <v>2681</v>
+      </c>
+      <c r="M46" s="37">
+        <v>2793</v>
+      </c>
+      <c r="N46" s="37">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="40"/>
+      <c r="C47" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="60">
+        <v>898</v>
+      </c>
+      <c r="F47" s="40">
+        <v>1276</v>
+      </c>
+      <c r="G47" s="40">
+        <v>1400</v>
+      </c>
+      <c r="H47" s="40">
+        <v>1516</v>
+      </c>
+      <c r="I47" s="40">
+        <v>1552</v>
+      </c>
+      <c r="J47" s="40">
+        <v>1825</v>
+      </c>
+      <c r="K47" s="40">
+        <v>1864</v>
+      </c>
+      <c r="L47" s="40">
+        <v>1881</v>
+      </c>
+      <c r="M47" s="40">
+        <v>2933</v>
+      </c>
+      <c r="N47" s="40">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="50">
+        <v>53</v>
+      </c>
+      <c r="B48" s="37">
+        <v>124.67</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="42">
+        <v>491</v>
+      </c>
+      <c r="F48" s="37">
+        <v>1085</v>
+      </c>
+      <c r="G48" s="37">
+        <v>1539</v>
+      </c>
+      <c r="H48" s="37">
+        <v>2010</v>
+      </c>
+      <c r="I48" s="37">
+        <v>2018</v>
+      </c>
+      <c r="J48" s="37">
+        <v>2446</v>
+      </c>
+      <c r="K48" s="37">
+        <v>2641</v>
+      </c>
+      <c r="L48" s="37">
+        <v>2728</v>
+      </c>
+      <c r="M48" s="37">
+        <v>2913</v>
+      </c>
+      <c r="N48" s="37">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="37"/>
+      <c r="C49" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="68">
+        <v>491</v>
+      </c>
+      <c r="F49" s="37">
+        <v>714</v>
+      </c>
+      <c r="G49" s="37">
+        <v>1075</v>
+      </c>
+      <c r="H49" s="37">
+        <v>1695</v>
+      </c>
+      <c r="I49" s="37">
+        <v>2012</v>
+      </c>
+      <c r="J49" s="37">
+        <v>2328</v>
+      </c>
+      <c r="K49" s="37">
+        <v>2600</v>
+      </c>
+      <c r="L49" s="37">
+        <v>2642</v>
+      </c>
+      <c r="M49" s="37">
+        <v>2643</v>
+      </c>
+      <c r="N49" s="37">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="40"/>
+      <c r="C50" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="60">
+        <v>446</v>
+      </c>
+      <c r="F50" s="40">
+        <v>907</v>
+      </c>
+      <c r="G50" s="40">
+        <v>1155</v>
+      </c>
+      <c r="H50" s="40">
+        <v>1540</v>
+      </c>
+      <c r="I50" s="40">
+        <v>1541</v>
+      </c>
+      <c r="J50" s="40">
+        <v>1660</v>
+      </c>
+      <c r="K50" s="40">
+        <v>1994</v>
+      </c>
+      <c r="L50" s="40">
+        <v>2171</v>
+      </c>
+      <c r="M50" s="40">
+        <v>2355</v>
+      </c>
+      <c r="N50" s="40">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="50">
+        <v>61</v>
+      </c>
+      <c r="B51" s="37">
+        <v>218.61</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="42">
+        <v>902</v>
+      </c>
+      <c r="F51" s="37">
+        <v>1054</v>
+      </c>
+      <c r="G51" s="37">
+        <v>1473</v>
+      </c>
+      <c r="H51" s="37">
+        <v>1817</v>
+      </c>
+      <c r="I51" s="37">
+        <v>1908</v>
+      </c>
+      <c r="J51" s="37">
+        <v>2252</v>
+      </c>
+      <c r="K51" s="37">
+        <v>2389</v>
+      </c>
+      <c r="L51" s="37">
+        <v>3262</v>
+      </c>
+      <c r="M51" s="37">
+        <v>3339</v>
+      </c>
+      <c r="N51" s="37">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="37"/>
+      <c r="C52" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="45">
+        <v>887</v>
+      </c>
+      <c r="F52" s="37">
+        <v>989</v>
+      </c>
+      <c r="G52" s="65">
+        <v>1204</v>
+      </c>
+      <c r="H52" s="37">
+        <v>1310</v>
+      </c>
+      <c r="I52" s="37">
+        <v>1756</v>
+      </c>
+      <c r="J52" s="37">
+        <v>1808</v>
+      </c>
+      <c r="K52" s="37">
+        <v>2499</v>
+      </c>
+      <c r="L52" s="37">
+        <v>2949</v>
+      </c>
+      <c r="M52" s="37">
+        <v>2984</v>
+      </c>
+      <c r="N52" s="37">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="40"/>
+      <c r="C53" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="52">
+        <v>606</v>
+      </c>
+      <c r="F53" s="40">
+        <v>1039</v>
+      </c>
+      <c r="G53" s="61">
+        <v>1201</v>
+      </c>
+      <c r="H53" s="40">
+        <v>1317</v>
+      </c>
+      <c r="I53" s="40">
+        <v>1500</v>
+      </c>
+      <c r="J53" s="40">
+        <v>1511</v>
+      </c>
+      <c r="K53" s="40">
+        <v>1629</v>
+      </c>
+      <c r="L53" s="40">
+        <v>2253</v>
+      </c>
+      <c r="M53" s="40">
+        <v>2501</v>
+      </c>
+      <c r="N53" s="40">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="50">
+        <v>67</v>
+      </c>
+      <c r="B54" s="37">
+        <v>151.36000000000001</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="42">
+        <v>1045</v>
+      </c>
+      <c r="F54" s="37">
+        <v>1582</v>
+      </c>
+      <c r="G54" s="37">
+        <v>1747</v>
+      </c>
+      <c r="H54" s="37">
+        <v>1865</v>
+      </c>
+      <c r="I54" s="37">
+        <v>1907</v>
+      </c>
+      <c r="J54" s="37">
+        <v>2068</v>
+      </c>
+      <c r="K54" s="37">
+        <v>2407</v>
+      </c>
+      <c r="L54" s="37">
+        <v>2418</v>
+      </c>
+      <c r="M54" s="37">
+        <v>2579</v>
+      </c>
+      <c r="N54" s="37">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="37"/>
+      <c r="C55" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="45">
+        <v>757</v>
+      </c>
+      <c r="F55" s="37">
+        <v>1420</v>
+      </c>
+      <c r="G55" s="37">
+        <v>1597</v>
+      </c>
+      <c r="H55" s="65">
+        <v>1709</v>
+      </c>
+      <c r="I55" s="37">
+        <v>1747</v>
+      </c>
+      <c r="J55" s="37">
+        <v>1769</v>
+      </c>
+      <c r="K55" s="37">
+        <v>1875</v>
+      </c>
+      <c r="L55" s="37">
+        <v>1918</v>
+      </c>
+      <c r="M55" s="37">
+        <v>2033</v>
+      </c>
+      <c r="N55" s="37">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="40"/>
+      <c r="C56" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="60">
+        <v>917</v>
+      </c>
+      <c r="F56" s="40">
+        <v>1420</v>
+      </c>
+      <c r="G56" s="40">
+        <v>1440</v>
+      </c>
+      <c r="H56" s="40">
+        <v>1597</v>
+      </c>
+      <c r="I56" s="40">
+        <v>1749</v>
+      </c>
+      <c r="J56" s="40">
+        <v>1875</v>
+      </c>
+      <c r="K56" s="40">
+        <v>1915</v>
+      </c>
+      <c r="L56" s="40">
+        <v>1928</v>
+      </c>
+      <c r="M56" s="40">
+        <v>2080</v>
+      </c>
+      <c r="N56" s="40">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="50">
+        <v>71</v>
+      </c>
+      <c r="B57" s="37">
+        <v>360.68</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="42">
+        <v>649</v>
+      </c>
+      <c r="F57" s="37">
+        <v>1407</v>
+      </c>
+      <c r="G57" s="37">
+        <v>1766</v>
+      </c>
+      <c r="H57" s="37">
+        <v>1877</v>
+      </c>
+      <c r="I57" s="37">
+        <v>2208</v>
+      </c>
+      <c r="J57" s="37">
+        <v>2521</v>
+      </c>
+      <c r="K57" s="37">
+        <v>3645</v>
+      </c>
+      <c r="L57" s="37">
+        <v>3996</v>
+      </c>
+      <c r="M57" s="37">
+        <v>4437</v>
+      </c>
+      <c r="N57" s="37">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="37"/>
+      <c r="C58" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="45">
+        <v>649</v>
+      </c>
+      <c r="F58" s="37">
+        <v>1125</v>
+      </c>
+      <c r="G58" s="37">
+        <v>1444</v>
+      </c>
+      <c r="H58" s="37">
+        <v>2244</v>
+      </c>
+      <c r="I58" s="37">
+        <v>2407</v>
+      </c>
+      <c r="J58" s="37">
+        <v>2556</v>
+      </c>
+      <c r="K58" s="65">
+        <v>2620</v>
+      </c>
+      <c r="L58" s="37">
+        <v>2699</v>
+      </c>
+      <c r="M58" s="37">
+        <v>3001</v>
+      </c>
+      <c r="N58" s="37">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="40"/>
+      <c r="C59" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="60">
+        <v>649</v>
+      </c>
+      <c r="F59" s="40">
+        <v>966</v>
+      </c>
+      <c r="G59" s="40">
+        <v>1103</v>
+      </c>
+      <c r="H59" s="40">
+        <v>1127</v>
+      </c>
+      <c r="I59" s="40">
+        <v>1943</v>
+      </c>
+      <c r="J59" s="40">
+        <v>1944</v>
+      </c>
+      <c r="K59" s="40">
+        <v>1944</v>
+      </c>
+      <c r="L59" s="40">
+        <v>2111</v>
+      </c>
+      <c r="M59" s="40">
+        <v>2247</v>
+      </c>
+      <c r="N59" s="40">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="36">
+        <v>73</v>
+      </c>
+      <c r="B60" s="6">
+        <v>224.57</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="45">
+        <v>1026</v>
+      </c>
+      <c r="F60" s="37">
+        <v>1035</v>
+      </c>
+      <c r="G60" s="37">
+        <v>1150</v>
+      </c>
+      <c r="H60" s="37">
+        <v>1518</v>
+      </c>
+      <c r="I60" s="37">
+        <v>1518</v>
+      </c>
+      <c r="J60" s="37">
+        <v>2025</v>
+      </c>
+      <c r="K60" s="37">
+        <v>2376</v>
+      </c>
+      <c r="L60" s="51">
+        <v>2828</v>
+      </c>
+      <c r="M60" s="37">
+        <v>2851</v>
+      </c>
+      <c r="N60" s="37">
+        <v>3275</v>
+      </c>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="38"/>
+      <c r="U60" s="38"/>
+      <c r="V60" s="38"/>
+      <c r="W60" s="38"/>
+      <c r="X60" s="38"/>
+    </row>
+    <row r="61" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="37"/>
+      <c r="C61" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="45">
+        <v>1205</v>
+      </c>
+      <c r="F61" s="37">
+        <v>1212</v>
+      </c>
+      <c r="G61" s="37">
+        <v>1358</v>
+      </c>
+      <c r="H61" s="37">
+        <v>1518</v>
+      </c>
+      <c r="I61" s="37">
+        <v>1847</v>
+      </c>
+      <c r="J61" s="65">
+        <v>1860</v>
+      </c>
+      <c r="K61" s="37">
+        <v>1860</v>
+      </c>
+      <c r="L61" s="37">
+        <v>2619</v>
+      </c>
+      <c r="M61" s="37">
+        <v>2821</v>
+      </c>
+      <c r="N61" s="37">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="40"/>
+      <c r="C62" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="52">
+        <v>1029</v>
+      </c>
+      <c r="F62" s="40">
+        <v>1150</v>
+      </c>
+      <c r="G62" s="61">
+        <v>1314</v>
+      </c>
+      <c r="H62" s="40">
+        <v>1679</v>
+      </c>
+      <c r="I62" s="40">
+        <v>1807</v>
+      </c>
+      <c r="J62" s="40">
+        <v>1847</v>
+      </c>
+      <c r="K62" s="40">
+        <v>2008</v>
+      </c>
+      <c r="L62" s="40">
+        <v>2500</v>
+      </c>
+      <c r="M62" s="40">
+        <v>2613</v>
+      </c>
+      <c r="N62" s="40">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="50">
+        <v>79</v>
+      </c>
+      <c r="B63" s="37">
+        <v>473.69</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="45">
+        <v>1046</v>
+      </c>
+      <c r="F63" s="37">
+        <v>1352</v>
+      </c>
+      <c r="G63" s="37">
+        <v>1965</v>
+      </c>
+      <c r="H63" s="37">
+        <v>1965</v>
+      </c>
+      <c r="I63" s="37">
+        <v>1990</v>
+      </c>
+      <c r="J63" s="37">
+        <v>2081</v>
+      </c>
+      <c r="K63" s="37">
+        <v>2270</v>
+      </c>
+      <c r="L63" s="51">
+        <v>2548</v>
+      </c>
+      <c r="M63" s="37">
+        <v>2732</v>
+      </c>
+      <c r="N63" s="37">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="37"/>
+      <c r="C64" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="53"/>
+      <c r="E64" s="45">
+        <v>1046</v>
+      </c>
+      <c r="F64" s="37">
+        <v>1201</v>
+      </c>
+      <c r="G64" s="37">
+        <v>1354</v>
+      </c>
+      <c r="H64" s="37">
+        <v>1821</v>
+      </c>
+      <c r="I64" s="37">
+        <v>2081</v>
+      </c>
+      <c r="J64" s="65">
+        <v>2120</v>
+      </c>
+      <c r="K64" s="37">
+        <v>2733</v>
+      </c>
+      <c r="L64" s="37">
+        <v>2887</v>
+      </c>
+      <c r="M64" s="37">
+        <v>2893</v>
+      </c>
+      <c r="N64" s="37">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="40"/>
+      <c r="C65" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="52">
+        <v>891</v>
+      </c>
+      <c r="F65" s="40">
+        <v>899</v>
+      </c>
+      <c r="G65" s="40">
+        <v>1024</v>
+      </c>
+      <c r="H65" s="40">
+        <v>1510</v>
+      </c>
+      <c r="I65" s="40">
+        <v>1665</v>
+      </c>
+      <c r="J65" s="40">
+        <v>1678</v>
+      </c>
+      <c r="K65" s="40">
+        <v>1820</v>
+      </c>
+      <c r="L65" s="40">
+        <v>1926</v>
+      </c>
+      <c r="M65" s="40">
+        <v>2235</v>
+      </c>
+      <c r="N65" s="40">
+        <v>2271</v>
+      </c>
+      <c r="O65" s="39">
+        <v>2287</v>
+      </c>
+      <c r="P65" s="39">
+        <v>2580</v>
+      </c>
+      <c r="Q65" s="39">
+        <v>2699</v>
+      </c>
+      <c r="R65" s="39">
+        <v>2735</v>
+      </c>
+      <c r="S65" s="39">
+        <v>2889</v>
+      </c>
+      <c r="T65" s="61">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="50">
+        <v>83</v>
+      </c>
+      <c r="B66" s="37">
+        <v>306.74</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="45">
+        <v>561</v>
+      </c>
+      <c r="F66" s="37">
+        <v>1630</v>
+      </c>
+      <c r="G66" s="37">
+        <v>1789</v>
+      </c>
+      <c r="H66" s="51">
+        <v>1990</v>
+      </c>
+      <c r="I66" s="37">
+        <v>2124</v>
+      </c>
+      <c r="J66" s="37">
+        <v>2745</v>
+      </c>
+      <c r="K66" s="37">
+        <v>3013</v>
+      </c>
+      <c r="L66" s="37">
+        <v>3090</v>
+      </c>
+      <c r="M66" s="37">
+        <v>3216</v>
+      </c>
+      <c r="N66" s="37">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="37"/>
+      <c r="C67" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="45">
+        <v>561</v>
+      </c>
+      <c r="F67" s="65">
+        <v>1223</v>
+      </c>
+      <c r="G67" s="37">
+        <v>1473</v>
+      </c>
+      <c r="H67" s="37">
+        <v>1796</v>
+      </c>
+      <c r="I67" s="37">
+        <v>2305</v>
+      </c>
+      <c r="J67" s="37">
+        <v>2624</v>
+      </c>
+      <c r="K67" s="37">
+        <v>3061</v>
+      </c>
+      <c r="L67" s="37">
+        <v>3257</v>
+      </c>
+      <c r="M67" s="37">
+        <v>3369</v>
+      </c>
+      <c r="N67" s="37">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="40"/>
+      <c r="C68" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="52">
+        <v>561</v>
+      </c>
+      <c r="F68" s="61">
+        <v>1013</v>
+      </c>
+      <c r="G68" s="40">
+        <v>1471</v>
+      </c>
+      <c r="H68" s="40">
+        <v>1835</v>
+      </c>
+      <c r="I68" s="40">
+        <v>1973</v>
+      </c>
+      <c r="J68" s="40">
+        <v>1974</v>
+      </c>
+      <c r="K68" s="40">
+        <v>2150</v>
+      </c>
+      <c r="L68" s="40">
+        <v>2260</v>
+      </c>
+      <c r="M68" s="40">
+        <v>2465</v>
+      </c>
+      <c r="N68" s="40">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="50">
+        <v>89</v>
+      </c>
+      <c r="B69" s="37">
+        <v>406</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="45">
+        <v>1345</v>
+      </c>
+      <c r="F69" s="51">
+        <v>1357</v>
+      </c>
+      <c r="G69" s="37">
+        <v>1687</v>
+      </c>
+      <c r="H69" s="37">
+        <v>1975</v>
+      </c>
+      <c r="I69" s="37">
+        <v>2599</v>
+      </c>
+      <c r="J69" s="37">
+        <v>2764</v>
+      </c>
+      <c r="K69" s="37">
+        <v>2919</v>
+      </c>
+      <c r="L69" s="37">
+        <v>3190</v>
+      </c>
+      <c r="M69" s="37">
+        <v>3550</v>
+      </c>
+      <c r="N69" s="37">
+        <v>3856</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="37"/>
+      <c r="C70" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="45">
+        <v>1345</v>
+      </c>
+      <c r="F70" s="37">
+        <v>1643</v>
+      </c>
+      <c r="G70" s="65">
+        <v>1775</v>
+      </c>
+      <c r="H70" s="37">
+        <v>1811</v>
+      </c>
+      <c r="I70" s="37">
+        <v>2133</v>
+      </c>
+      <c r="J70" s="37">
+        <v>2582</v>
+      </c>
+      <c r="K70" s="37">
+        <v>2721</v>
+      </c>
+      <c r="L70" s="37">
+        <v>2757</v>
+      </c>
+      <c r="M70" s="37">
+        <v>2837</v>
+      </c>
+      <c r="N70" s="37">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="40"/>
+      <c r="C71" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="52">
+        <v>1200</v>
+      </c>
+      <c r="F71" s="40">
+        <v>1348</v>
+      </c>
+      <c r="G71" s="61">
+        <v>1503</v>
+      </c>
+      <c r="H71" s="40">
+        <v>1524</v>
+      </c>
+      <c r="I71" s="40">
+        <v>1617</v>
+      </c>
+      <c r="J71" s="40">
+        <v>1660</v>
+      </c>
+      <c r="K71" s="40">
+        <v>1976</v>
+      </c>
+      <c r="L71" s="40">
+        <v>2118</v>
+      </c>
+      <c r="M71" s="40">
+        <v>2402</v>
+      </c>
+      <c r="N71" s="40">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="50">
+        <v>97</v>
+      </c>
+      <c r="B72" s="37">
+        <v>103.73</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="45">
+        <v>926</v>
+      </c>
+      <c r="F72" s="37">
+        <v>933</v>
+      </c>
+      <c r="G72" s="37">
+        <v>1072</v>
+      </c>
+      <c r="H72" s="37">
+        <v>1125</v>
+      </c>
+      <c r="I72" s="37">
+        <v>1136</v>
+      </c>
+      <c r="J72" s="51">
+        <v>1136</v>
+      </c>
+      <c r="K72" s="37">
+        <v>2006</v>
+      </c>
+      <c r="L72" s="37">
+        <v>2661</v>
+      </c>
+      <c r="M72" s="37">
+        <v>2929</v>
+      </c>
+      <c r="N72" s="37">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="37"/>
+      <c r="C73" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="45">
+        <v>1082</v>
+      </c>
+      <c r="F73" s="65">
+        <v>1127</v>
+      </c>
+      <c r="G73" s="37">
+        <v>1417</v>
+      </c>
+      <c r="H73" s="37">
+        <v>1505</v>
+      </c>
+      <c r="I73" s="37">
+        <v>1697</v>
+      </c>
+      <c r="J73" s="37">
+        <v>1886</v>
+      </c>
+      <c r="K73" s="37">
+        <v>1895</v>
+      </c>
+      <c r="L73" s="37">
+        <v>2349</v>
+      </c>
+      <c r="M73" s="37">
+        <v>2658</v>
+      </c>
+      <c r="N73" s="37">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="40"/>
+      <c r="C74" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="60">
+        <v>951</v>
+      </c>
+      <c r="F74" s="40">
+        <v>1091</v>
+      </c>
+      <c r="G74" s="40">
+        <v>1097</v>
+      </c>
+      <c r="H74" s="40">
+        <v>1117</v>
+      </c>
+      <c r="I74" s="40">
+        <v>1386</v>
+      </c>
+      <c r="J74" s="40">
+        <v>1394</v>
+      </c>
+      <c r="K74" s="40">
+        <v>1452</v>
+      </c>
+      <c r="L74" s="40">
+        <v>1543</v>
+      </c>
+      <c r="M74" s="40">
+        <v>1550</v>
+      </c>
+      <c r="N74" s="40">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="50">
+        <v>101</v>
+      </c>
+      <c r="B75" s="37">
+        <v>156.65</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="45">
+        <v>425</v>
+      </c>
+      <c r="F75" s="37">
+        <v>756</v>
+      </c>
+      <c r="G75" s="51">
+        <v>768</v>
+      </c>
+      <c r="H75" s="37">
+        <v>1092</v>
+      </c>
+      <c r="I75" s="37">
+        <v>1925</v>
+      </c>
+      <c r="J75" s="37">
+        <v>2090</v>
+      </c>
+      <c r="K75" s="37">
+        <v>2261</v>
+      </c>
+      <c r="L75" s="37">
+        <v>2595</v>
+      </c>
+      <c r="M75" s="37">
+        <v>3090</v>
+      </c>
+      <c r="N75" s="37">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="37"/>
+      <c r="C76" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="45"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="37"/>
+    </row>
+    <row r="77" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="40"/>
+      <c r="C77" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="52">
+        <v>387</v>
+      </c>
+      <c r="F77" s="61">
+        <v>762</v>
+      </c>
+      <c r="G77" s="40">
+        <v>896</v>
+      </c>
+      <c r="H77" s="40">
+        <v>1092</v>
+      </c>
+      <c r="I77" s="40">
+        <v>1258</v>
+      </c>
+      <c r="J77" s="40">
+        <v>1426</v>
+      </c>
+      <c r="K77" s="40">
+        <v>2552</v>
+      </c>
+      <c r="L77" s="40">
+        <v>2595</v>
+      </c>
+      <c r="M77" s="40">
+        <v>2760</v>
+      </c>
+      <c r="N77" s="40">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="50">
+        <v>103</v>
+      </c>
+      <c r="B78" s="37">
+        <v>230.08</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="45">
+        <v>708</v>
+      </c>
+      <c r="F78" s="37">
+        <v>890</v>
+      </c>
+      <c r="G78" s="37">
+        <v>1478</v>
+      </c>
+      <c r="H78" s="37">
+        <v>1638</v>
+      </c>
+      <c r="I78" s="37">
+        <v>1791</v>
+      </c>
+      <c r="J78" s="51">
+        <v>1804</v>
+      </c>
+      <c r="K78" s="37">
+        <v>2253</v>
+      </c>
+      <c r="L78" s="37">
+        <v>2260</v>
+      </c>
+      <c r="M78" s="37">
+        <v>2719</v>
+      </c>
+      <c r="N78" s="37">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="37"/>
+      <c r="C79" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="45"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="37"/>
+      <c r="N79" s="37"/>
+    </row>
+    <row r="80" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="40"/>
+      <c r="C80" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="52">
+        <v>708</v>
+      </c>
+      <c r="F80" s="40">
+        <v>1105</v>
+      </c>
+      <c r="G80" s="40">
+        <v>1128</v>
+      </c>
+      <c r="H80" s="61">
+        <v>1282</v>
+      </c>
+      <c r="I80" s="40">
+        <v>1636</v>
+      </c>
+      <c r="J80" s="40">
+        <v>1649</v>
+      </c>
+      <c r="K80" s="40">
+        <v>1787</v>
+      </c>
+      <c r="L80" s="40">
+        <v>1800</v>
+      </c>
+      <c r="M80" s="40">
+        <v>2103</v>
+      </c>
+      <c r="N80" s="40">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="50">
+        <v>107</v>
+      </c>
+      <c r="B81" s="37">
+        <v>264.01</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="45">
+        <v>1273</v>
+      </c>
+      <c r="F81" s="37">
+        <v>1517</v>
+      </c>
+      <c r="G81" s="37">
+        <v>1613</v>
+      </c>
+      <c r="H81" s="37">
+        <v>1950</v>
+      </c>
+      <c r="I81" s="37">
+        <v>1993</v>
+      </c>
+      <c r="J81" s="37">
+        <v>2003</v>
+      </c>
+      <c r="K81" s="51">
+        <v>2016</v>
+      </c>
+      <c r="L81" s="37">
+        <v>2340</v>
+      </c>
+      <c r="M81" s="37">
+        <v>2969</v>
+      </c>
+      <c r="N81" s="37">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="37"/>
+      <c r="C82" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="45"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="37"/>
+    </row>
+    <row r="83" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="40"/>
+      <c r="C83" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="52">
+        <v>794</v>
+      </c>
+      <c r="F83" s="61">
+        <v>1151</v>
+      </c>
+      <c r="G83" s="40">
+        <v>1431</v>
+      </c>
+      <c r="H83" s="40">
+        <v>1487</v>
+      </c>
+      <c r="I83" s="40">
+        <v>1802</v>
+      </c>
+      <c r="J83" s="40">
+        <v>1830</v>
+      </c>
+      <c r="K83" s="40">
+        <v>1998</v>
+      </c>
+      <c r="L83" s="40">
+        <v>2011</v>
+      </c>
+      <c r="M83" s="40">
+        <v>2022</v>
+      </c>
+      <c r="N83" s="40">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="50">
+        <v>109</v>
+      </c>
+      <c r="B84" s="37">
+        <v>228.36</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="42">
+        <v>1173</v>
+      </c>
+      <c r="F84" s="37">
+        <v>1344</v>
+      </c>
+      <c r="G84" s="37">
+        <v>2015</v>
+      </c>
+      <c r="H84" s="37">
+        <v>2342</v>
+      </c>
+      <c r="I84" s="37">
+        <v>2342</v>
+      </c>
+      <c r="J84" s="37">
+        <v>2472</v>
+      </c>
+      <c r="K84" s="37">
+        <v>2679</v>
+      </c>
+      <c r="L84" s="37">
+        <v>3009</v>
+      </c>
+      <c r="M84" s="37">
+        <v>3115</v>
+      </c>
+      <c r="N84" s="37">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="37"/>
+      <c r="C85" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="45"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="37"/>
+      <c r="N85" s="37"/>
+    </row>
+    <row r="86" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="40"/>
+      <c r="C86" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="60">
+        <v>821</v>
+      </c>
+      <c r="F86" s="40">
+        <v>964</v>
+      </c>
+      <c r="G86" s="40">
+        <v>1180</v>
+      </c>
+      <c r="H86" s="40">
+        <v>1181</v>
+      </c>
+      <c r="I86" s="40">
+        <v>1347</v>
+      </c>
+      <c r="J86" s="40">
+        <v>1843</v>
+      </c>
+      <c r="K86" s="40">
+        <v>1853</v>
+      </c>
+      <c r="L86" s="40">
+        <v>1863</v>
+      </c>
+      <c r="M86" s="40">
+        <v>2341</v>
+      </c>
+      <c r="N86" s="40">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="36">
+        <v>113</v>
+      </c>
+      <c r="B87" s="6">
+        <v>325.33</v>
+      </c>
+      <c r="C87" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="45">
+        <v>1483</v>
+      </c>
+      <c r="F87" s="37">
+        <v>1597</v>
+      </c>
+      <c r="G87" s="37">
+        <v>1948</v>
+      </c>
+      <c r="H87" s="37">
+        <v>2211</v>
+      </c>
+      <c r="I87" s="37">
+        <v>2406</v>
+      </c>
+      <c r="J87" s="37">
+        <v>2563</v>
+      </c>
+      <c r="K87" s="37">
+        <v>3338</v>
+      </c>
+      <c r="L87" s="37">
+        <v>3651</v>
+      </c>
+      <c r="M87" s="37">
+        <v>3764</v>
+      </c>
+      <c r="N87" s="37">
+        <v>3813</v>
+      </c>
+      <c r="O87" s="37">
+        <v>4109</v>
+      </c>
+      <c r="P87" s="37">
+        <v>4271</v>
+      </c>
+      <c r="Q87" s="51">
+        <v>4598</v>
+      </c>
+      <c r="R87" s="38"/>
+      <c r="S87" s="38"/>
+      <c r="T87" s="38"/>
+      <c r="U87" s="38"/>
+      <c r="V87" s="38"/>
+      <c r="W87" s="38"/>
+      <c r="X87" s="38"/>
+    </row>
+    <row r="88" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="37"/>
+      <c r="C88" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="45">
+        <v>1168</v>
+      </c>
+      <c r="F88" s="37">
+        <v>1323</v>
+      </c>
+      <c r="G88" s="37">
+        <v>1440</v>
+      </c>
+      <c r="H88" s="37">
+        <v>1448</v>
+      </c>
+      <c r="I88" s="37">
+        <v>1639</v>
+      </c>
+      <c r="J88" s="65">
+        <v>1792</v>
+      </c>
+      <c r="K88" s="37">
+        <v>2251</v>
+      </c>
+      <c r="L88" s="37">
+        <v>2365</v>
+      </c>
+      <c r="M88" s="37">
+        <v>2409</v>
+      </c>
+      <c r="N88" s="37">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="40"/>
+      <c r="C89" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="52">
+        <v>932</v>
+      </c>
+      <c r="F89" s="61">
+        <v>1166</v>
+      </c>
+      <c r="G89" s="40">
+        <v>1325</v>
+      </c>
+      <c r="H89" s="40">
+        <v>1325</v>
+      </c>
+      <c r="I89" s="40">
+        <v>1480</v>
+      </c>
+      <c r="J89" s="40">
+        <v>1489</v>
+      </c>
+      <c r="K89" s="40">
+        <v>1945</v>
+      </c>
+      <c r="L89" s="40">
+        <v>1954</v>
+      </c>
+      <c r="M89" s="40">
+        <v>2056</v>
+      </c>
+      <c r="N89" s="40">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="36">
+        <v>127</v>
+      </c>
+      <c r="B90" s="6">
+        <v>382.89</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="42">
+        <v>531</v>
+      </c>
+      <c r="F90" s="37">
+        <v>860</v>
+      </c>
+      <c r="G90" s="37">
+        <v>1595</v>
+      </c>
+      <c r="H90" s="37">
+        <v>2211</v>
+      </c>
+      <c r="I90" s="37">
+        <v>2414</v>
+      </c>
+      <c r="J90" s="37">
+        <v>2519</v>
+      </c>
+      <c r="K90" s="37">
+        <v>2699</v>
+      </c>
+      <c r="L90" s="37">
+        <v>3107</v>
+      </c>
+      <c r="M90" s="37">
+        <v>3117</v>
+      </c>
+      <c r="N90" s="37">
+        <v>3457</v>
+      </c>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
+      <c r="Q90" s="38"/>
+      <c r="R90" s="38"/>
+      <c r="S90" s="38"/>
+      <c r="T90" s="38"/>
+      <c r="U90" s="38"/>
+      <c r="V90" s="38"/>
+      <c r="W90" s="38"/>
+      <c r="X90" s="38"/>
+    </row>
+    <row r="91" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="37"/>
+      <c r="C91" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="45"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="37"/>
+    </row>
+    <row r="92" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="40"/>
+      <c r="C92" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="60">
+        <v>625</v>
+      </c>
+      <c r="F92" s="40">
+        <v>1595</v>
+      </c>
+      <c r="G92" s="40">
+        <v>1684</v>
+      </c>
+      <c r="H92" s="40">
+        <v>1907</v>
+      </c>
+      <c r="I92" s="40">
+        <v>1920</v>
+      </c>
+      <c r="J92" s="40">
+        <v>2174</v>
+      </c>
+      <c r="K92" s="40">
+        <v>2198</v>
+      </c>
+      <c r="L92" s="40">
+        <v>2374</v>
+      </c>
+      <c r="M92" s="40">
+        <v>2523</v>
+      </c>
+      <c r="N92" s="40">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>11</v>
       </c>
-      <c r="B41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="B95" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>12</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B96" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A44" s="28" t="s">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A98" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B44">
+      <c r="B98">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A45" s="28" t="s">
+    <row r="99" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+      <c r="A99" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B45">
+      <c r="B99">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A100" s="28"/>
+      <c r="O100" s="46"/>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A101" s="28"/>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A102" s="28"/>
+      <c r="D102" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E102" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F102" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I102" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="J102" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K102" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="L102" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M102" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N102" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="O102" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="P102" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q102" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="R102" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="S102" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="T102" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="U102" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="V102" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="W102" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="X102" s="43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" ht="96" x14ac:dyDescent="0.2">
+      <c r="A103" s="28"/>
+      <c r="D103" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="E103" s="43">
+        <v>12</v>
+      </c>
+      <c r="F103" s="43">
+        <v>3</v>
+      </c>
+      <c r="G103" s="43">
+        <v>2</v>
+      </c>
+      <c r="H103" s="43">
+        <v>4</v>
+      </c>
+      <c r="I103" s="43">
+        <v>2</v>
+      </c>
+      <c r="J103" s="43">
+        <v>2</v>
+      </c>
+      <c r="K103" s="43">
         <v>1</v>
       </c>
-      <c r="F48" s="43">
+      <c r="L103" s="43">
         <v>2</v>
       </c>
-      <c r="G48" s="43">
+      <c r="M103" s="43">
+        <v>0</v>
+      </c>
+      <c r="N103" s="43">
+        <v>0</v>
+      </c>
+      <c r="O103" s="56">
+        <v>0</v>
+      </c>
+      <c r="P103" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="43">
+        <v>1</v>
+      </c>
+      <c r="R103" s="43">
+        <v>0</v>
+      </c>
+      <c r="S103" s="43">
+        <v>0</v>
+      </c>
+      <c r="T103" s="43">
+        <v>0</v>
+      </c>
+      <c r="U103" s="43">
+        <v>0</v>
+      </c>
+      <c r="V103" s="43">
+        <v>0</v>
+      </c>
+      <c r="W103" s="43">
+        <v>1</v>
+      </c>
+      <c r="X103" s="43">
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <f>SUM(E103:X103)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="O104" s="47"/>
+    </row>
+    <row r="105" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="54"/>
+      <c r="D105" s="54"/>
+    </row>
+    <row r="106" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="54"/>
+      <c r="D106" s="54"/>
+      <c r="O106" s="3"/>
+    </row>
+    <row r="107" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="54"/>
+      <c r="D107" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E107" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F107" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G107" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H107" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I107" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="J107" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K107" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="L107" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M107" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N107" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="O107" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="P107" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q107" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="R107" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="S107" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="T107" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="U107" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="V107" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="W107" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="X107" s="43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" s="46" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A108" s="54"/>
+      <c r="D108" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="E108" s="43">
+        <v>7</v>
+      </c>
+      <c r="F108" s="43">
+        <v>5</v>
+      </c>
+      <c r="G108" s="43">
         <v>3</v>
       </c>
-      <c r="H48" s="43">
-        <v>4</v>
-      </c>
-      <c r="I48" s="43">
+      <c r="H108" s="43">
+        <v>2</v>
+      </c>
+      <c r="I108" s="43">
+        <v>2</v>
+      </c>
+      <c r="J108" s="43">
         <v>5</v>
       </c>
-      <c r="J48" s="43">
+      <c r="K108" s="43">
+        <v>1</v>
+      </c>
+      <c r="L108" s="43">
+        <v>0</v>
+      </c>
+      <c r="M108" s="43">
+        <v>0</v>
+      </c>
+      <c r="N108" s="43">
+        <v>0</v>
+      </c>
+      <c r="O108" s="56">
+        <v>0</v>
+      </c>
+      <c r="P108" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="43">
+        <v>0</v>
+      </c>
+      <c r="R108" s="43">
+        <v>0</v>
+      </c>
+      <c r="S108" s="43">
+        <v>0</v>
+      </c>
+      <c r="T108" s="43">
+        <v>0</v>
+      </c>
+      <c r="U108" s="43">
+        <v>0</v>
+      </c>
+      <c r="V108" s="43">
+        <v>0</v>
+      </c>
+      <c r="W108" s="43">
+        <v>0</v>
+      </c>
+      <c r="X108" s="43">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="46">
+        <f>SUM(E108:X108)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="54"/>
+      <c r="D109" s="54"/>
+      <c r="O109" s="47"/>
+    </row>
+    <row r="110" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="54"/>
+      <c r="D110" s="54"/>
+    </row>
+    <row r="111" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="54"/>
+      <c r="D111" s="54"/>
+      <c r="O111" s="3"/>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A112" s="28"/>
+      <c r="D112" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E112" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F112" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G112" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H112" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I112" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="J112" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K112" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="L112" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M112" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N112" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="O112" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="P112" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q112" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="R112" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="S112" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="T112" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="U112" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="V112" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="W112" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="X112" s="43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" ht="80" x14ac:dyDescent="0.2">
+      <c r="A113" s="28"/>
+      <c r="D113" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="E113" s="43">
+        <v>13</v>
+      </c>
+      <c r="F113" s="43">
+        <v>5</v>
+      </c>
+      <c r="G113" s="43">
         <v>6</v>
       </c>
-      <c r="K48" s="43">
-        <v>7</v>
-      </c>
-      <c r="L48" s="43">
-        <v>8</v>
-      </c>
-      <c r="M48" s="43">
-        <v>9</v>
-      </c>
-      <c r="N48" s="43">
-        <v>10</v>
-      </c>
-      <c r="O48" s="43">
-        <v>11</v>
-      </c>
-      <c r="P48" s="43">
-        <v>12</v>
-      </c>
-      <c r="Q48" s="43">
-        <v>13</v>
-      </c>
-      <c r="R48" s="43">
-        <v>14</v>
-      </c>
-      <c r="S48" s="43">
-        <v>15</v>
-      </c>
-      <c r="T48" s="43">
-        <v>16</v>
-      </c>
-      <c r="U48" s="43">
-        <v>17</v>
-      </c>
-      <c r="V48" s="43">
-        <v>18</v>
-      </c>
-      <c r="W48" s="43">
-        <v>19</v>
-      </c>
-      <c r="X48" s="43">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
-      <c r="D49" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="43">
+      <c r="H113" s="43">
         <v>3</v>
       </c>
-      <c r="F49" s="43">
+      <c r="I113" s="43">
         <v>1</v>
       </c>
-      <c r="G49" s="43">
-        <v>3</v>
-      </c>
-      <c r="H49" s="43">
+      <c r="J113" s="43">
         <v>1</v>
       </c>
-      <c r="I49" s="43">
+      <c r="K113" s="43">
         <v>0</v>
       </c>
-      <c r="J49" s="43">
+      <c r="L113" s="43">
         <v>0</v>
       </c>
-      <c r="K49" s="43">
+      <c r="M113" s="43">
+        <v>0</v>
+      </c>
+      <c r="N113" s="43">
+        <v>0</v>
+      </c>
+      <c r="O113" s="57">
+        <v>0</v>
+      </c>
+      <c r="P113" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="57">
+        <v>0</v>
+      </c>
+      <c r="R113" s="57">
+        <v>0</v>
+      </c>
+      <c r="S113" s="57">
+        <v>0</v>
+      </c>
+      <c r="T113" s="57">
         <v>1</v>
       </c>
-      <c r="L49" s="43">
+      <c r="U113" s="57">
         <v>0</v>
       </c>
-      <c r="M49" s="43">
+      <c r="V113" s="57">
         <v>0</v>
       </c>
-      <c r="N49" s="43">
+      <c r="W113" s="57">
         <v>0</v>
       </c>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="43"/>
-      <c r="X49" s="43"/>
-    </row>
-    <row r="50" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
-      <c r="D50" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="43">
-        <v>3</v>
-      </c>
-      <c r="F50" s="43">
-        <v>3</v>
-      </c>
-      <c r="G50" s="43">
-        <v>1</v>
-      </c>
-      <c r="H50" s="43">
-        <v>2</v>
-      </c>
-      <c r="I50" s="43">
-        <v>1</v>
-      </c>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
-      <c r="X50" s="43"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
-      <c r="D51" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="43">
-        <v>5</v>
-      </c>
-      <c r="F51" s="43">
+      <c r="X113" s="57">
         <v>0</v>
       </c>
-      <c r="G51" s="43">
-        <v>3</v>
-      </c>
-      <c r="H51" s="43">
-        <v>1</v>
-      </c>
-      <c r="I51" s="43">
-        <v>0</v>
-      </c>
-      <c r="J51" s="43">
-        <v>1</v>
-      </c>
-      <c r="K51" s="43">
-        <v>0</v>
-      </c>
-      <c r="L51" s="43">
-        <v>0</v>
-      </c>
-      <c r="M51" s="43">
-        <v>0</v>
-      </c>
-      <c r="N51" s="43">
-        <v>0</v>
-      </c>
-      <c r="O51" s="43">
-        <v>0</v>
-      </c>
-      <c r="P51" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="43">
-        <v>0</v>
-      </c>
-      <c r="R51" s="43">
-        <v>0</v>
-      </c>
-      <c r="S51" s="43">
-        <v>0</v>
-      </c>
-      <c r="T51" s="43">
-        <v>0</v>
-      </c>
-      <c r="U51" s="43">
-        <v>0</v>
-      </c>
-      <c r="V51" s="43">
-        <v>0</v>
-      </c>
-      <c r="W51" s="43">
-        <v>0</v>
-      </c>
-      <c r="X51" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A52" s="28"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A53" s="28"/>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A54" s="28"/>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A55" s="28"/>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A56" s="28"/>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A57" s="28"/>
+      <c r="Y113">
+        <f>SUM(E113:X113)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A114" s="28"/>
+      <c r="O114" s="46"/>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A115" s="28"/>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A116" s="28"/>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A117" s="28"/>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A118" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
